--- a/spreadsheet/macrofree/avs_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/avs_checklist.ko.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -976,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1094,27 +1059,23 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>백업</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>vSAN은 한정된 리소스이므로 백업이 vSAN에 저장되지 않도록 합니다.</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="inlineStr">
-        <is>
-          <t>백업 솔루션에 대한 데이터 저장소가 vSAN 스토리지 외부에 저장되어 있는지 확인합니다. Azure 네이티브 또는 디스크 풀 지원 데이터 저장소에서either in Azure native or on a disk pool-backed datastore</t>
-        </is>
-      </c>
+          <t>ADDS 도메인 컨트롤러가 네이티브 Azure의 ID 구독에 배포되었는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n"/>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1123,17 +1084,13 @@
         </is>
       </c>
       <c r="G8" s="21" t="n"/>
-      <c r="H8" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H8" s="15" t="n"/>
       <c r="I8" s="15" t="n"/>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>976f32a7-30d1-6caa-c2a0-207fdc26571b</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1144,24 +1101,20 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>MABS를 백업 솔루션으로 사용</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="inlineStr">
-        <is>
-          <t>Microsoft 백업 서비스</t>
-        </is>
-      </c>
+          <t>ADDS 사이트 및 서비스가 Azure 기반 리소스(Azure VMware Solution 포함)의 인증 요청을 Azure에 로컬로 유지하도록 구성되어 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1173,17 +1126,13 @@
         </is>
       </c>
       <c r="G9" s="21" t="n"/>
-      <c r="H9" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H9" s="15" t="n"/>
       <c r="I9" s="15" t="n"/>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>fc8af7a1-c724-e255-c18d-4ca22a6f27f0</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1194,27 +1143,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 프라이빗 클라우드와 동일한 지역에 백업 솔루션 배포Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="inlineStr">
-        <is>
-          <t>모범 사례 - 재해 복구가 아닌 백업입니다.</t>
-        </is>
-      </c>
+          <t>vCenter가 ADDS에 연결되어 '명명된 사용자 계정'을 기반으로 인증을 사용하도록 설정하는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1223,17 +1168,13 @@
         </is>
       </c>
       <c r="G10" s="21" t="n"/>
-      <c r="H10" s="15" t="inlineStr">
-        <is>
-          <t>Best practice to deploy backup in the same region as your AVS deployment</t>
-        </is>
-      </c>
+      <c r="H10" s="15" t="n"/>
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>be28860f-3d29-a79a-1a0e-36f1b23b36ae</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1244,24 +1185,20 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>SDDC 외부에 MABS를 네이티브 Azure IaaS로 배포하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>모범 사례 - AVS를 사용할 수 없는 경우</t>
-        </is>
-      </c>
+          <t>vCenter에서 ADS로의 연결이 보안 프로토콜(LDAPS)을 사용하고 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1273,17 +1210,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>4d2f79a5-4ccf-0dfc-557c-49619b99a540</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1294,24 +1227,20 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>지역 DR의 경우 Microsoft와 함께 에스컬레이션 프로세스</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="inlineStr">
-        <is>
-          <t>Azure 플랫폼에서 관리하는 VMware 구성 요소의 복원을 요청하는 프로세스가 있나요?</t>
-        </is>
-      </c>
+          <t>vCenter IdP의 CloudAdmin 계정은 긴급 계정으로만 사용됩니다(비상 계정).</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1323,17 +1252,13 @@
         </is>
       </c>
       <c r="G12" s="21" t="n"/>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>Will Disaster Recovery Site Recovery, HCX Disaster Recovery, SRM or back tools be used?</t>
-        </is>
-      </c>
+      <c r="H12" s="15" t="n"/>
       <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>ff431c40-962c-5182-d536-0c2f0c4ce9e0</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1344,27 +1269,23 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>두 사이트가 모두 Azure VMware Solution인 경우 VMware Site Recovery Manager 사용</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>SRM과 HCX 비교</t>
-        </is>
-      </c>
+          <t>NSX-Manager가 외부 ID 제공자와 통합되어 있는지 확인합니다</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1373,17 +1294,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/disaster-recovery-using-vmware-site-recovery-manager</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>f379436d-3051-daa0-01fb-dc4e0e04d677</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1394,24 +1311,20 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>재해 복구 기술이 네이티브 Azure IaaS인 경우 Azure Site Recovery 사용Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>VMware 솔루션 대신 Azure로 복구</t>
-        </is>
-      </c>
+          <t>VMware vSphere 내에서 사용할 RBAC 모델이 생성되었습니까?</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1423,17 +1336,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/site-recovery/avs-tutorial-prepare-azure</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>367f71d8-3cf6-51a0-91a5-3db3d570cc19</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1444,24 +1353,20 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>재해 솔루션 중 하나와 함께 자동화된 복구 계획을 사용합니다.</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>가능한 한 수동 작업을 피하십시오</t>
-        </is>
-      </c>
+          <t>RBAC 권한은 특정 사용자가 아닌 ADDS 그룹에 부여되어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1473,17 +1378,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/site-recovery/avs-tutorial-prepare-azure</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>ee02ada0-1887-bb3a-b84c-423f45a09ef9</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1494,27 +1395,23 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>보조 재해 복구 환경 구성</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="inlineStr">
-        <is>
-          <t>동일한 지역에 있는 다른 모든 데이터 센터</t>
-        </is>
-      </c>
+          <t>Azure의 Azure VMware Solution 리소스에 대한 RBAC 권한은 제한된 소유자 집합으로만 '잠겨' 있습니다.</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1523,17 +1420,13 @@
         </is>
       </c>
       <c r="G16" s="21" t="n"/>
-      <c r="H16" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/connect-multiple-private-clouds-same-region</t>
-        </is>
-      </c>
+      <c r="H16" s="15" t="n"/>
       <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>0c2b74e5-9c28-780d-1df3-12d3de4aaa76</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1544,27 +1437,23 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>건축학</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>각 지역에 고유한 IP 범위 할당</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="inlineStr">
-        <is>
-          <t>지역 간에 2개의 서로 다른 주소 공간을 사용합니다(예: 다른 지역의 경우 10.0.0.0/16 및 192.168.0.0/16).</t>
-        </is>
-      </c>
+          <t>현재 고객 사용 사례에 대해 올바른 Azure VMware Solution 연결 모델을 선택했는지 여부</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1575,7 +1464,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1583,7 +1472,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>c2a34ec4-2933-4e6c-dc36-e20e67abbe3f</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1594,27 +1483,23 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>DR 지역 간 Global Reach 사용</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="inlineStr">
-        <is>
-          <t>ExpressRoute Global Reach는 기본 및 보조 Azure VMware Solution 프라이빗 클라우드 간의 연결에 사용할 수 있으며, 네트워크 가상 어플라이언스를 통해 라우팅을 수행해야 하나요?</t>
-        </is>
-      </c>
+          <t>'연결 모니터'를 사용하여 온-프레미스에서 Azure로의 ExpressRoute 또는 VPN 연결이 모니터링되는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,17 +1508,13 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="inlineStr">
-        <is>
-          <t>This depends if you have multiple AVS Private Clouds. If so and they are in the same region then use AVS Interconnect. If they are in separate regions then use ExpressRoute Global Reach.</t>
-        </is>
-      </c>
+      <c r="H18" s="15" t="n"/>
       <c r="I18" s="15" t="n"/>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>b44fb6ec-bfc1-3a8e-dba2-ca97f0991d2c</t>
+          <t>dbf590ce-65de-48e0-9f9c-cbd468266abc</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1644,24 +1525,20 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">게스트 내 암호화와 함께 Azure Key Vault 사용Use Azure Key Vault with in-guest encryption </t>
-        </is>
-      </c>
-      <c r="D19" s="21" t="inlineStr">
-        <is>
-          <t>게스트 내 암호화를 사용하는 경우 가능하면 Azure Key Vault에 암호화 키를 저장합니다</t>
-        </is>
-      </c>
+          <t>Azure 네이티브 리소스에서 Azure VMware Solution 가상 머신으로 연결 모니터를 만들어 Azure VMware Solution 백 엔드 ExpressRoute 연결을 모니터링해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1673,17 +1550,13 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>General recommendation for storing encryption keys.</t>
-        </is>
-      </c>
+      <c r="H19" s="15" t="n"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>70cfbddc-d3d4-9188-77c8-1cabaefef646</t>
+          <t>e6a84de5-df43-4d19-a248-1718d5d1e5f6</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1694,24 +1567,20 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>게스트 내 암호화 사용</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution 워크로드가 런타임 중에 충분한 데이터 암호화(예: 게스트 내 디스크 암호화 및 SQL TDE)를 사용하는지 확인합니다. (유휴 시 vSAN 암호화가 기본값임)</t>
-        </is>
-      </c>
+          <t>엔드2엔드 연결을 모니터링하기 위해 온-프레미스 리소스에서 Azure VMware Solution 가상 머신으로 연결 모니터가 생성되었는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1723,17 +1592,13 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/concepts-storage#data-at-rest-encryption</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>c1a81638-18df-0ce9-a73a-4b9a8a8dd392</t>
+          <t>25659d35-58fd-4772-99c9-31112d027fe4</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1744,27 +1609,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>라우팅</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>비밀에 대한 Keyvault 사용</t>
-        </is>
-      </c>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution 및 ExpressRoute를 배포하는 데 별도의 서비스 원칙을 사용하는 경우 Key Vault를 사용하여 비밀 및 권한 부여 키를 저장합니다</t>
-        </is>
-      </c>
+          <t>경로 서버를 사용하는 경우 경로 서버에서 ExR 게이트웨이, 온-프레미스(ARS 제한)로 200개 이상의 경로가 전파되지 않도록 합니다. MoN을 사용할 때 중요</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1773,17 +1634,13 @@
         </is>
       </c>
       <c r="G21" s="21" t="n"/>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/key-vault/general/authentication</t>
-        </is>
-      </c>
+      <c r="H21" s="15" t="n"/>
       <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>8d0a8f51-8d35-19cd-c2fe-4e3512fb467e</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1794,27 +1651,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>추가 지원</t>
+          <t>보안(ID)</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">연장된 보안 업데이트 지원 확인 </t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution 실행되는 워크로드에 대해 구성된 이전 OS 보안 패치는 ESU에 적합합니다</t>
-        </is>
-      </c>
+          <t>Azure Portal에서 Azure VMware Solution 리소스를 관리하는 역할에 대해 Privileged Identity Management가 구현되어 있습니까(대기 권한이 허용되지 않음).</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1823,17 +1676,13 @@
         </is>
       </c>
       <c r="G22" s="21" t="n"/>
-      <c r="H22" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/windows-server/get-started/extended-security-updates-deploy</t>
-        </is>
-      </c>
+      <c r="H22" s="15" t="n"/>
       <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4f8b20e9-a2a1-f80f-af9b-8aa3b26dca08</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1844,27 +1693,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>조사</t>
+          <t>보안(ID)</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Sentinel 또는 제3자 SIEM 사용 </t>
-        </is>
-      </c>
-      <c r="D23" s="21" t="inlineStr">
-        <is>
-          <t>SIEM/SOAR 사용</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution PIM 역할에 대해 Privileged Identity Management 감사 보고가 구현되어 있습니까?</t>
+        </is>
+      </c>
+      <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1873,17 +1718,13 @@
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
-      <c r="H23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/sentinel/overview</t>
-        </is>
-      </c>
+      <c r="H23" s="15" t="n"/>
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>9bb22fec-4d00-3b95-7136-e225d0f5c63a</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1894,27 +1735,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>직접(vWAN 없음, H&amp;S 없음)</t>
+          <t>보안(ID)</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>ExR 회로에 대한 글로벌 도달 범위 - Azure 리소스 없음</t>
-        </is>
-      </c>
-      <c r="D24" s="21" t="inlineStr">
-        <is>
-          <t>ExR Global Reach 연결은 ExR 회로에 설정되며 다른 연결은 설정되지 않습니다</t>
-        </is>
-      </c>
+          <t>CloudAdmin 계정 사용을 응급 액세스로만 제한Limit of CloudAdmin account with emergency access only</t>
+        </is>
+      </c>
+      <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1923,17 +1760,13 @@
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
-      <c r="H24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-expressroute-global-reach-private-cloud</t>
-        </is>
-      </c>
+      <c r="H24" s="15" t="n"/>
       <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>a2c12df2-07fa-3edd-2cec-fda0b55fb952</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1944,24 +1777,20 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>익스프레스라우트(ExpressT</t>
+          <t>보안(ID)</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>ExR을 사용하여 Azure에 연결</t>
-        </is>
-      </c>
-      <c r="D25" s="21" t="inlineStr">
-        <is>
-          <t>ExR을 사용하여 온-프레미스(기타) 위치를 Azure에 연결</t>
-        </is>
-      </c>
+          <t>vCenter에서 사용자 지정 RBAC 역할을 만들어 vCenter 내에서 최소 권한 모델을 구현합니다</t>
+        </is>
+      </c>
+      <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1973,17 +1802,13 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-expressroute-global-reach-private-cloud</t>
-        </is>
-      </c>
+      <c r="H25" s="15" t="n"/>
       <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>f62ce162-ba5a-429d-674e-fafa1af5f706</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1994,24 +1819,20 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>익스프레스라우트(ExpressT</t>
+          <t>보안(ID)</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>대역폭 크기 조정</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="inlineStr">
-        <is>
-          <t>마이그레이션 평가 도구 및 타임라인을 사용하여 필요한 대역폭 결정</t>
-        </is>
-      </c>
+          <t>cloudadmin(vCenter) 및 admin(NSX) 자격 증명을 정기적으로 교체하도록 정의된 프로세스입니다</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2023,17 +1844,13 @@
         </is>
       </c>
       <c r="G26" s="21" t="n"/>
-      <c r="H26" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-introduction</t>
-        </is>
-      </c>
+      <c r="H26" s="15" t="n"/>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>cf01c73b-1247-0a7a-740c-e1ea29bda340</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2044,27 +1861,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>익스프레스라우트(ExpressT</t>
+          <t>보안(ID)</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">트래픽 라우팅 </t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>방화벽을 통해 라우팅되는 트래픽, Azure로 직접 이동하는 트래픽</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution에서 실행되는 워크로드(VM)에 사용할 중앙 집중식 ID 공급자 사용</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2073,16 +1886,12 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H27" s="15" t="n"/>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>aab216ee-8941-315e-eada-c7e1f2243bd1</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2093,24 +1902,20 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>익스프레스라우트(ExpressT</t>
+          <t>보안(네트워크)</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">글로벌 도달 범위 </t>
-        </is>
-      </c>
-      <c r="D28" s="21" t="inlineStr">
-        <is>
-          <t>AVS - ExR 회로, 트래픽 검사 없음</t>
-        </is>
-      </c>
+          <t>East-West 트래픽 필터링이 NSX-T 내에 구현되어 있습니까?</t>
+        </is>
+      </c>
+      <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2122,16 +1927,12 @@
         </is>
       </c>
       <c r="G28" s="21" t="n"/>
-      <c r="H28" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H28" s="15" t="n"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>1f956e45-f62d-5c95-3a95-3bab718907f8</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,27 +1943,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>허브 &amp; 스포크(Hub &amp; Spoke)</t>
+          <t>보안(네트워크)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>vNet 이름 &amp; 주소 공간</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="inlineStr">
-        <is>
-          <t>vNet의 이름 및 고유 주소 공간 /24 최소값</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution의 워크로드는 인터넷에 직접 노출되지 않습니다. 트래픽은 Azure Application Gateway, Azure Firewall 또는 제3자 솔루션에 의해 필터링되고 검사됩니다</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2171,16 +1968,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/quick-create-portal</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>91f7a87b-21ac-d712-959c-8df2ba034253</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2191,27 +1984,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>허브 &amp; 스포크(Hub &amp; Spoke)</t>
+          <t>보안(네트워크)</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷</t>
-        </is>
-      </c>
-      <c r="D30" s="21" t="inlineStr">
-        <is>
-          <t>서브넷의 이름은 GatewaySubnet이어야 합니다.</t>
-        </is>
-      </c>
+          <t>감사 및 로깅은 Azure VMware Solution 및 Azure VMware Solution 기반 워크로드에 대한 인바운드 인터넷 요청에 대해 구현됩니다</t>
+        </is>
+      </c>
+      <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2220,16 +2009,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>58a027e2-f37f-b540-45d5-e44843aba26b</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2240,24 +2025,20 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>허브 &amp; 스포크(Hub &amp; Spoke)</t>
+          <t>보안(네트워크)</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>허브 게이트웨이 서브넷에 VPN 게이트웨이 만들기Create a VPN gateway on the hub Gateway subnet</t>
-        </is>
-      </c>
+          <t>세션 모니터링은 의심스러운/악의적인 활동을 식별하기 위해 Azure VMware Solution 또는 Azure VMware Solution 기반 워크로드의 아웃바운드 인터넷 연결에 대해 구현됩니다</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2269,16 +2050,12 @@
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
-      <c r="H31" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>d4806549-0913-3e79-b580-ac2d3706e65a</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2289,24 +2066,20 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>허브 &amp; 스포크(Hub &amp; Spoke)</t>
+          <t>보안(네트워크)</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>ExR 게이트웨이</t>
-        </is>
-      </c>
-      <c r="D32" s="21" t="inlineStr">
-        <is>
-          <t>허브 게이트웨이 서브넷에 ExR 게이트웨이를 생성합니다.</t>
-        </is>
-      </c>
+          <t>Azure의 ExR/VPN Gateway 서브넷에서 DDoS 표준 보호가 사용하도록 설정되어 있습니까?</t>
+        </is>
+      </c>
+      <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2318,17 +2091,13 @@
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
-      <c r="H32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>864d7a8b-7016-c769-a717-61af6bfb73d2</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2339,24 +2108,20 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>보안(네트워크)</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>송신 지점</t>
-        </is>
-      </c>
-      <c r="D33" s="21" t="inlineStr">
-        <is>
-          <t>인터넷 트래픽은 경로, Az 방화벽, NVA, Secure Hub, 온-프레미스 방화벽이 어떻게 되나요?</t>
-        </is>
-      </c>
+          <t>전용 PAW(권한 있는 액세스 워크스테이션)를 사용하여 Azure VMware Solution, vCenter, NSX Manager 및 HCX Manager를 관리합니다</t>
+        </is>
+      </c>
+      <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2368,17 +2133,13 @@
         </is>
       </c>
       <c r="G33" s="21" t="n"/>
-      <c r="H33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/enable-public-internet-access</t>
-        </is>
-      </c>
+      <c r="H33" s="15" t="n"/>
       <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cc2e11b9-7911-7da1-458c-d7fcef794aad</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2389,24 +2150,20 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>점프박스 &amp; 바스티온</t>
+          <t>보안(게스트/VM)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>AVS에 대한 원격 연결</t>
-        </is>
-      </c>
-      <c r="D34" s="21" t="inlineStr">
-        <is>
-          <t>포털을 통해 AVS, 특히 vCenter, NSX-T 및 HCX에 대한 원격 연결 허용</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution에서 실행되는 워크로드에 대해 Advanced Threat Detection(클라우드용 Microsoft Defender, ASC) 사용</t>
+        </is>
+      </c>
+      <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2418,17 +2175,13 @@
         </is>
       </c>
       <c r="G34" s="21" t="n"/>
-      <c r="H34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
-        </is>
-      </c>
+      <c r="H34" s="15" t="n"/>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>71e68ce3-982e-5e56-0191-01100ad0e66f</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2439,24 +2192,20 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>점프박스 &amp; 바스티온</t>
+          <t>보안(게스트/VM)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>점박스 및 Azure Bastion 구성</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>jumpbox의 이름을 지정하고 호스팅할 서브넷을 식별합니다</t>
-        </is>
-      </c>
+          <t>서버용 Azure ARC를 사용하여 Azure 네이티브 기술을 사용하여 Azure VMware Solution 실행되는 워크로드를 적절하게 제어합니다(Azure VMware Solution용 Azure ARC는 아직 사용할 수 없음).</t>
+        </is>
+      </c>
+      <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2468,17 +2217,13 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/tutorial-create-host-portal</t>
-        </is>
-      </c>
+      <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>6f8e93a2-44b1-bb1d-28a1-4d5b3c2ea857</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2489,27 +2234,23 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>점프박스 &amp; 바스티온</t>
+          <t>보안(게스트/VM)</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>포털을 통한 RDP 액세스를 허용하는 보안 조치</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="inlineStr">
-        <is>
-          <t>포털을 통해 VM에 직접 안전하고 원활한 RDP/SSH 연결을 제공합니다.</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution 워크로드가 런타임 중에 충분한 데이터 암호화(예: 게스트 내 디스크 암호화 및 SQL TDE)를 사용하는지 확인합니다. (유휴 시 vSAN 암호화가 기본값임)</t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2518,17 +2259,13 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-groups-overview</t>
-        </is>
-      </c>
+      <c r="H36" s="15" t="n"/>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>ba430d58-4541-085c-3641-068c00be9bc5</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2539,27 +2276,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>VPN (영문)</t>
+          <t>보안(게스트/VM)</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>VPN을 사용하여 Azure에 연결</t>
-        </is>
-      </c>
-      <c r="D37" s="21" t="inlineStr">
-        <is>
-          <t>VPN을 사용하여 Azure에 연결하여 VMware 통신(HCX)을 사용하도록 설정(권장하지 않음)</t>
-        </is>
-      </c>
+          <t>게스트 내 암호화를 사용하는 경우 가능하면 Azure Key Vault에 암호화 키를 저장합니다</t>
+        </is>
+      </c>
+      <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2568,17 +2301,13 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-site-to-site-vpn-gateway</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>9988598f-2a9f-6b12-9b46-488415ceb325</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2589,27 +2318,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>VPN (영문)</t>
+          <t>보안(게스트/VM)</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>대역폭 크기 조정</t>
-        </is>
-      </c>
-      <c r="D38" s="21" t="inlineStr">
-        <is>
-          <t>마이그레이션 평가 도구 및 타임라인을 사용하여 필요한 대역폭 결정(예: 링크의 제3자 도구)</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution 실행되는 워크로드에 대해 확장 보안 업데이트 지원이 구성되어 있는지 확인합니다(Azure VMware Solution은 ESU에 적합).</t>
+        </is>
+      </c>
+      <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2618,17 +2343,13 @@
         </is>
       </c>
       <c r="G38" s="21" t="n"/>
-      <c r="H38" s="15" t="inlineStr">
-        <is>
-          <t>https://www.omnicalculator.com/other/data-transfer#:~:text=To%20calculate%20the%20data%20transfer%20speed%3A%201%20Download,measured%20time%20to%20find%20the%20data%20transfer%20speed.</t>
-        </is>
-      </c>
+      <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>956ce5e9-a862-fe2b-a50d-a22923569357</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2639,27 +2360,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>VPN (영문)</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">트래픽 라우팅 </t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="inlineStr">
-        <is>
-          <t>방화벽을 통해 라우팅되는 트래픽, Azure로 직접 이동하는 트래픽</t>
-        </is>
-      </c>
+          <t>적절한 VM 템플릿 스토리지 정책이 사용되는지 확인합니다</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2668,17 +2385,13 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H39" s="15" t="n"/>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>e095116f-0bdc-4b51-4d71-b9e469d56f59</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2689,27 +2402,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>vWAN 허브</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>vWAN 이름, 허브 이름 및 주소 공간</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="inlineStr">
-        <is>
-          <t>vWAN의 이름 및 고유 주소 공간, vWAN 허브의 이름</t>
-        </is>
-      </c>
+          <t>충분한 할당량을 요청했는지 확인하고 성장 및 재해 복구 요구 사항을 고려했는지 확인합니다</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2718,17 +2427,13 @@
         </is>
       </c>
       <c r="G40" s="21" t="n"/>
-      <c r="H40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-site-to-site-portal#openvwan</t>
-        </is>
-      </c>
+      <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>4dc480ac-cecd-39c4-fdc6-680b300716ab</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2739,27 +2444,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>vWAN 허브</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>ExR 및/또는 VPN 게이트웨이 프로비저닝</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="inlineStr">
-        <is>
-          <t>boh 또는 적절한 연결 유형을 선택합니다.</t>
-        </is>
-      </c>
+          <t>vSAN 스토리지 요구 사항을 충족하기 위해 허용되는 장애 정책이 적용되었는지 확인합니다</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2768,17 +2469,13 @@
         </is>
       </c>
       <c r="G41" s="21" t="n"/>
-      <c r="H41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-point-to-site-portal</t>
-        </is>
-      </c>
+      <c r="H41" s="15" t="n"/>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>51d6affd-8e02-6aea-d3d4-0baf618b3076</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2789,24 +2486,20 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>vWAN 허브</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>보안 vWAN</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="inlineStr">
-        <is>
-          <t>vWAN에 Azure 방화벽 추가(권장)</t>
-        </is>
-      </c>
+          <t>ESXi에 대한 액세스 제약 조건을 이해하고 타사 솔루션에 영향을 줄 수 있는 액세스 제한이 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2818,17 +2511,13 @@
         </is>
       </c>
       <c r="G42" s="21" t="n"/>
-      <c r="H42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-expressroute-portal</t>
-        </is>
-      </c>
+      <c r="H42" s="15" t="n"/>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e32a4c67-3dc0-c134-1c12-52d46dcbab5b</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2839,27 +2528,23 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>접근</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>외부 ID(사용자 계정)</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="inlineStr">
-        <is>
-          <t>Active Directory 또는 기타 ID 공급자 서버</t>
-        </is>
-      </c>
+          <t>ESXi 호스트 밀도 및 효율성에 대한 정책이 있는지 확인하고 새 노드 요청에 대한 리드 타임을 염두에 두어야 합니다</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2868,17 +2553,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-identity-source-vcenter</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>fbc47fbf-bc96-fa93-ed5d-8c9be63cd5c3</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2889,24 +2570,20 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>접근</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>AD 도메인을 사용하는 경우 사이트 및 서비스가 구성되었는지 확인합니다.</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="inlineStr">
-        <is>
-          <t>LDAPS에는 필요하지 않으며 Kerberos에는 필요합니다.</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution에 대한 적절한 비용 관리 프로세스가 마련되어 있는지 확인 - Azure Cost Management를 사용할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2918,17 +2595,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/windows-server/identity/ad-ds/plan/understanding-active-directory-site-topology</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>b5db7975-f6bb-8ba3-ee5f-e3e805887997</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2939,27 +2612,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>접근</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>ldap가 아닌 LDAPS 사용(vCenter)</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="inlineStr">
-        <is>
-          <t>사용자에 대한 인증은 안전해야 합니다.</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution 사용 비용을 최적화하는 데 사용되는 Azure 예약 인스턴스인가요?</t>
+        </is>
+      </c>
+      <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2968,16 +2637,12 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-identity-source-vcenter</t>
-        </is>
-      </c>
+      <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>c30749c4-e2af-558c-2eb9-0b6ae84881d1</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2988,24 +2653,20 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>접근</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>LDAP가 아닌 LDAPS 사용(NSX-T)</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="inlineStr">
-        <is>
-          <t>사용자에 대한 인증은 안전해야 합니다.</t>
-        </is>
-      </c>
+          <t>다른 Azure 네이티브 서비스를 사용할 때 Azure Private-Link를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3017,17 +2678,13 @@
         </is>
       </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-external-identity-source-nsx-t</t>
-        </is>
-      </c>
+      <c r="H46" s="15" t="n"/>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>64cb9b5c-9edd-787e-1dd8-2b2338e51635</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3038,24 +2695,20 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스(게스트/VM)</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">LDAPS 서버에 설치된 보안 인증서 </t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="inlineStr">
-        <is>
-          <t>CN 또는 SAN 이름(와일드카드 없음, 프라이빗 키 포함) - CER 또는 PFX 포함</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution 게스트 VM 워크로드에 클라우드용 Microsoft Defender 사용</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3067,17 +2720,13 @@
         </is>
       </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="inlineStr">
-        <is>
-          <t>https://youtu.be/4jvfbsrhnEs</t>
-        </is>
-      </c>
+      <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>bec285ab-037e-d629-81d1-f61dac23cd4c</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3088,24 +2737,20 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스(게스트/VM)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure 역할에 적용된 RBAC</t>
-        </is>
-      </c>
-      <c r="D48" s="21" t="inlineStr">
-        <is>
-          <t>표준 Azure 역할 기반 액세스 제어Standard Azure Roles Based Access Controls</t>
-        </is>
-      </c>
+          <t>Azure Arc 지원 서버를 사용하여 Azure VMware Solution 게스트 VM 워크로드 관리</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3117,16 +2762,12 @@
         </is>
       </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-identity</t>
-        </is>
-      </c>
+      <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4ba394a2-3c33-104c-8e34-2dadaba9cc73</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3137,27 +2778,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스(게스트/VM)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>vCenter의 RBAC 모델</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>vCenter에서 실행 가능한 최소 액세스 지침을 충족하는 데 필요한 역할 생성</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution에서 진단 및 메트릭 로깅 사용Enable Diagnostic and metric logging on Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3166,16 +2803,12 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-identity#view-the-vcenter-server-privileges</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b04ca129-83a9-3494-7512-347dd2d766db</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3186,24 +2819,20 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스(게스트/VM)</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>CloudAdmin 역할 사용</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="inlineStr">
-        <is>
-          <t>vCenter IdP의 CloudAdmin 계정은 긴급 계정으로만 사용됩니다(비상 계정).</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution 게스트 VM 워크로드에 Log Analytics 에이전트 배포Deploy the Log Analytics Agents to Azure VMware Solution guest VM workloads</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3215,17 +2844,13 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>8e477d2f-8004-3dd0-93d6-0aece9e1b2fb</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3236,24 +2861,20 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전 </t>
+          <t>거버넌스(게스트/VM)</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Privileged Identity Management가 구현되어 있습니까?</t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>Azure Portal에서 Azure VMware Solution 리소스를 관리하는 역할의 경우(대기 권한이 허용되지 않음)</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution VM 워크로드에 대한 문서화되고 구현된 백업 정책 및 솔루션이 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3265,17 +2886,13 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
+      <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>00e0b729-f9be-f600-8c32-5ec0e8f2ed63</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3286,24 +2903,20 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전 </t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Privileged Identity Management 감사 보고가 구현되어 있습니까?</t>
-        </is>
-      </c>
-      <c r="D52" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution PIM 역할의 경우</t>
-        </is>
-      </c>
+          <t>클라우드용 Microsoft Defender를 사용하여 Azure VMware Solution에서 실행되는 워크로드의 규정 준수 모니터링</t>
+        </is>
+      </c>
+      <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3315,17 +2928,13 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
+      <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>0842d45f-41a8-8274-1155-2f6ed554d315</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3336,24 +2945,20 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전 </t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>CloudAdmin 계정 사용을 응급 액세스로만 제한Limit of CloudAdmin account with emergency access only</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="inlineStr">
-        <is>
-          <t>모범 사례, 모니터링/경고도 참조하세요.</t>
-        </is>
-      </c>
+          <t>적용 가능한 규정 준수 기준이 클라우드용 Microsoft Defender에 추가됩니까?</t>
+        </is>
+      </c>
+      <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3365,16 +2970,12 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>915cbcd7-0640-eb7c-4162-9f33775de559</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3385,27 +2986,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전 </t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>cloudadmin(vCenter) 및 admin(NSX) 자격 증명을 정기적으로 교체하도록 정의된 프로세스입니다</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="inlineStr">
-        <is>
-          <t>운영 절차</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution 배포에 사용할 Azure 지역을 선택할 때 데이터 상주가 평가되었습니다.</t>
+        </is>
+      </c>
+      <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3414,17 +3011,13 @@
         </is>
       </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/rotate-cloudadmin-credentials?tabs=azure-portal</t>
-        </is>
-      </c>
+      <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>7effa0c0-9172-e8e4-726a-67dbea8be40a</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3435,27 +3028,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>AVS VM 관리(Azure Arc)</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="inlineStr">
-        <is>
-          <t>서버용 Azure ARC를 사용하여 Azure 네이티브 기술을 사용하여 Azure VMware Solution 실행되는 워크로드를 적절하게 제어합니다(Azure VMware Solution용 Azure ARC는 아직 사용할 수 없음).</t>
-        </is>
-      </c>
+          <t>데이터 처리에 미치는 영향(서비스 공급자/서비스 소비자 모델)이 명확하고 문서화되어 있습니까?</t>
+        </is>
+      </c>
+      <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3464,16 +3053,12 @@
         </is>
       </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-arc/vmware-vsphere/overview</t>
-        </is>
-      </c>
+      <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>8f426fd0-d73b-d398-1f6f-df0cbe262a82</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3489,22 +3074,18 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy를 사용하여 Azure 관리, 모니터링 및 보안 솔루션에서 Azure VMware Solution 워크로드 온보딩</t>
-        </is>
-      </c>
+          <t>핵심 Azure VMware Solution 모니터링 인사이트를 사용하도록 대시보드 만들기</t>
+        </is>
+      </c>
+      <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3513,16 +3094,12 @@
         </is>
       </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>11dbe773-e380-9191-1418-e886fa7a6fd0</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3538,22 +3115,18 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금</t>
-        </is>
-      </c>
-      <c r="D57" s="21" t="inlineStr">
-        <is>
-          <t>수동 배포의 경우 Azure VMware Solution 프라이빗 클라우드에서 우발적인 작업을 방지하기 위해 리소스 잠금을 구현하는 것이 좋습니다</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution 성능(CPU &gt;80%, 평균 메모리 &gt;80%, vSAN &gt;70%)에 대한 자동 경고에 대한 중요 임계값에 대한 경고 경고 만들기</t>
+        </is>
+      </c>
+      <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3562,16 +3135,12 @@
         </is>
       </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-resource-manager/management/lock-resources?tabs=json#configure-locks</t>
-        </is>
-      </c>
+      <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>1e59c639-9b7e-a60b-5e93-3798c1aff5db</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3587,22 +3156,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>책 실행</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="inlineStr">
-        <is>
-          <t>수동 배포의 경우 모든 구성 및 배포를 문서화해야 합니다</t>
-        </is>
-      </c>
+          <t>VMware의 지원 임계값이므로 vSAN 사용량이 75% 미만인지 모니터링하기 위해 중요 경고가 생성되었는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3611,16 +3176,12 @@
         </is>
       </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="inlineStr">
-        <is>
-          <t>Make sure to create your own runbook on the deployment of AVS.</t>
-        </is>
-      </c>
+      <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>8f2c46aa-ca1b-cad3-3ac9-213dfc0a265e</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3636,22 +3197,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>인증 키에 대한 명명 규칙</t>
-        </is>
-      </c>
-      <c r="D59" s="21" t="inlineStr">
-        <is>
-          <t>ExR 권한 부여 키에 대해 사람이 이해할 수 있는 이름을 구현하여 키 목적/용도를 쉽게 식별할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure Service Health 경고 및 알림에 대해 경고가 구성되어 있는지 확인</t>
+        </is>
+      </c>
+      <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3660,16 +3217,12 @@
         </is>
       </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/resource-abbreviations</t>
-        </is>
-      </c>
+      <c r="H59" s="15" t="n"/>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>86b314f9-1f1e-317a-4dfb-cf510ad4a030</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3680,24 +3233,20 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
+          <t>경영</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
           <t>모니터링</t>
         </is>
       </c>
-      <c r="B60" s="21" t="inlineStr">
-        <is>
-          <t>경고</t>
-        </is>
-      </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">중요 임계값에 대한 경고 경고 만들기 </t>
-        </is>
-      </c>
-      <c r="D60" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution 성능(CPU &gt;80%, 평균 메모리&gt;80%, vSAN &gt;70%)에 대한 자동 경고</t>
-        </is>
-      </c>
+          <t>처리를 위해 Azure Storage 계정 또는 Azure EventHub로 보내도록 Azure VMware Solution 로깅 구성</t>
+        </is>
+      </c>
+      <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3709,16 +3258,12 @@
         </is>
       </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H60" s="15" t="n"/>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>e22a2d99-eb71-7d7c-07af-6d4cdb1d4443</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3729,27 +3274,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
+          <t>경영</t>
+        </is>
+      </c>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
           <t>모니터링</t>
         </is>
       </c>
-      <c r="B61" s="21" t="inlineStr">
-        <is>
-          <t>경고</t>
-        </is>
-      </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>중요한 경고 vSAN 사용량 생성</t>
-        </is>
-      </c>
-      <c r="D61" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution 성능(CPU &gt;80%, 평균 메모리 &gt;80%, vSAN &gt;70%)에 대한 자동 경고</t>
-        </is>
-      </c>
+          <t>VMware vSphere에 대한 심층적인 통찰력이 필요한 경우: 솔루션에 vRealize Operations 및/또는 vRealize Network Insights가 사용됩니까?</t>
+        </is>
+      </c>
+      <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3758,16 +3299,12 @@
         </is>
       </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H61" s="15" t="n"/>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6d02f159-627d-79bf-a931-fab6d947eda2</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3778,27 +3315,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>경고</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Azure Service Health 경고 및 알림에 대해 구성됨</t>
-        </is>
-      </c>
-      <c r="D62" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 경고 제공(Microsoft에서 생성됨)</t>
-        </is>
-      </c>
+          <t>VM에 대한 vSAN 스토리지 정책은 씩 프로비저닝을 적용하므로 기본 스토리지 정책이 아닌지 확인합니다</t>
+        </is>
+      </c>
+      <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3807,16 +3340,12 @@
         </is>
       </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="inlineStr">
-        <is>
-          <t>https://www.virtualworkloads.com/2021/04/azure-vmware-solution-azure-service-health/</t>
-        </is>
-      </c>
+      <c r="H62" s="15" t="n"/>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>1cc97b39-2c7e-246f-6d73-789cfebfe951</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3827,24 +3356,20 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>백업</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>백업 정책</t>
-        </is>
-      </c>
-      <c r="D63" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution VM 워크로드에 대한 문서화되고 구현된 백업 정책 및 솔루션이 있는지 확인합니다.</t>
-        </is>
-      </c>
+          <t>vSAN은 유한한 리소스이므로 vSphere 컨텐츠 라이브러리가 vSAN에 배치되지 않도록 합니다.</t>
+        </is>
+      </c>
+      <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3856,17 +3381,13 @@
         </is>
       </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>0962606c-e3b4-62a9-5661-e4ffd62a4509</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3877,24 +3398,20 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>용량</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>ESXi 호스트 밀도 및 효율성에 대한 정책</t>
-        </is>
-      </c>
-      <c r="D64" s="21" t="inlineStr">
-        <is>
-          <t>새 노드를 요청하는 데 소요되는 시간을 염두에 두어야 합니다</t>
-        </is>
-      </c>
+          <t>백업 솔루션에 대한 데이터 저장소가 vSAN 스토리지 외부에 저장되어 있는지 확인합니다. Azure 네이티브 또는 디스크 풀 지원 데이터 저장소에서either in Azure native or on a disk pool-backed datastore</t>
+        </is>
+      </c>
+      <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3906,17 +3423,13 @@
         </is>
       </c>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H64" s="15" t="n"/>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>4ec7ccfb-795e-897e-4a84-fd31c04eadc6</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3927,24 +3440,20 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure VMware Solution에 대한 적절한 비용 관리 프로세스가 마련되어 있는지 확인 - </t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azure Cost Management를 사용할 수 있습니다 - 하나의 옵션은 AVS를 자체 구독에 넣는 것입니다. </t>
-        </is>
-      </c>
+          <t>Azure VMware Solution에서 실행되는 워크로드가 서버용 Azure Arc를 사용하여 하이브리드 관리되는지 확인합니다(Azure VMware Solution용 Arc는 미리 보기로 제공됨).</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3956,17 +3465,13 @@
         </is>
       </c>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/govern</t>
-        </is>
-      </c>
+      <c r="H65" s="15" t="n"/>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>7f8f175d-13f4-5298-9e61-0bc7e9fcc279</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3977,24 +3482,20 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>대시보드</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>연결 모니터 대시보드</t>
-        </is>
-      </c>
-      <c r="D66" s="21" t="inlineStr">
-        <is>
-          <t>핵심 Azure VMware Solution 모니터링 인사이트를 사용하도록 대시보드 만들기</t>
-        </is>
-      </c>
+          <t>Azure Log Analytics 및 Azure Monitor를 사용하여 Azure VMware Solution에서 실행되는 워크로드를 모니터링하는지 확인</t>
+        </is>
+      </c>
+      <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4006,16 +3507,12 @@
         </is>
       </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-portal/azure-portal-dashboards</t>
-        </is>
-      </c>
+      <c r="H66" s="15" t="n"/>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>01e689e0-7c6c-b58f-37bd-4d6b9b1b9c74</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -4026,24 +3523,20 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>로그 &amp; 메트릭</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure VMware Solution 로깅 구성 </t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="inlineStr">
-        <is>
-          <t>처리를 위해 Azure Storage 계정 또는 Azure EventHub로 보내기(Log Analytics에 직접 보류 중)</t>
-        </is>
-      </c>
+          <t>기존 업데이트 관리 도구 또는 Azure 업데이트 관리의 Azure VMware Solution에서 실행되는 워크로드 포함</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4055,17 +3548,13 @@
         </is>
       </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H67" s="15" t="n"/>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>f9afdcc9-649d-d840-9fb5-a3c0edcc697d</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -4076,24 +3565,20 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>로그 &amp; 메트릭</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>vRealize Operations</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>온-프레미스여야 하며 사용 가능한 경우 구현해야 합니다.</t>
-        </is>
-      </c>
+          <t>Azure Policy를 사용하여 Azure 관리, 모니터링 및 보안 솔루션에서 Azure VMware Solution 워크로드 온보딩</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4105,17 +3590,13 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Is vROPS or vRealize Network Insight going to be used? </t>
-        </is>
-      </c>
+      <c r="H68" s="15" t="n"/>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>7cbac8c3-4eda-d5d9-9bda-c6b5abba9fb6</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4126,27 +3607,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>로그 &amp; 메트릭</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>AVS VM 로깅</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="inlineStr">
-        <is>
-          <t>Azure Log Analytics 및 Azure Monitor를 사용하여 Azure VMware Solution에서 실행되는 워크로드를 모니터링하는지 확인</t>
-        </is>
-      </c>
+          <t>ANF를 사용하여 Azure VMware Solution 스토리지를 확장하는 경우 지금은 VM 수준에서만 사용되는지 확인합니다(NFS 데이터 저장소가 아직 프라이빗 미리 보기 상태이므로 ANF).</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4155,17 +3632,13 @@
         </is>
       </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>b243521a-644d-f865-7fb6-21f9019c0dd2</t>
+          <t>ab79b188-dab8-4193-8c9f-c9d1bb77036f</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4176,24 +3649,20 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>네트워크</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">ExpressRoute 및/또는 VPN 연결 모니터링 </t>
-        </is>
-      </c>
-      <c r="D70" s="21" t="inlineStr">
-        <is>
-          <t>온-프레미스와 Azure 간의 모니터링은 '연결 모니터'를 사용하여 모니터링됩니다.</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution 실행되는 워크로드가 클라우드용 Microsoft Defender에 온보딩되었는지 확인</t>
+        </is>
+      </c>
+      <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4205,17 +3674,13 @@
         </is>
       </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H70" s="15" t="n"/>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>2ca97d91-dd36-7229-b668-01036ccc3cd3</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4226,24 +3691,20 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>네트워크</t>
+          <t>백업</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 리소스에서 Azure VMware Solution VM으로 모니터링Monitor from an Azure native resource to an Azure VMware Solution VM</t>
-        </is>
-      </c>
-      <c r="D71" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution 백 엔드 ExpressRoute 연결을 모니터링하려면(AVS에 대한 Azure 네이티브)</t>
-        </is>
-      </c>
+          <t>vSAN은 한정된 리소스이므로 백업이 vSAN에 저장되지 않도록 합니다.</t>
+        </is>
+      </c>
+      <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4255,17 +3716,13 @@
         </is>
       </c>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H71" s="15" t="n"/>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>99209143-60fe-19f0-5633-8b5671277ba5</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4276,24 +3733,20 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>네트워크</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스 리소스에서 Azure VMware Solution VM으로 모니터링Monitor from an on-premises resource to an Azure VMware Solution VM</t>
-        </is>
-      </c>
-      <c r="D72" s="21" t="inlineStr">
-        <is>
-          <t>엔드 투 엔드, 온-프레미스에서 AVS 워크로드를 모니터링하려면</t>
-        </is>
-      </c>
+          <t>두 사이트가 모두 Azure VMware Solution인 경우 VMware Site Recovery Manager 사용</t>
+        </is>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4305,17 +3758,13 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>b9e5867c-57d3-036f-fb1b-3f0a71664efe</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4326,24 +3775,20 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">감사 및 로깅은 인바운드 인터넷에 대해 구현됩니다. </t>
-        </is>
-      </c>
-      <c r="D73" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution 및 Azure VMware Solution 기반 워크로드에 대한 요청 추적</t>
-        </is>
-      </c>
+          <t>재해 복구 기술이 네이티브 Azure IaaS인 경우 Azure Site Recovery 사용Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
+        </is>
+      </c>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4355,17 +3800,13 @@
         </is>
       </c>
       <c r="G73" s="21" t="n"/>
-      <c r="H73" s="15" t="inlineStr">
-        <is>
-          <t>Firewall logging and alerting rules are configured (Azure Firewall or 3rd party)</t>
-        </is>
-      </c>
+      <c r="H73" s="15" t="n"/>
       <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>4af7c5f7-e5e9-bedf-a8cf-314b81735962</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4376,27 +3817,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">세션 모니터링  </t>
-        </is>
-      </c>
-      <c r="D74" s="21" t="inlineStr">
-        <is>
-          <t>의심스러운/악의적인 활동을 식별하기 위해 Azure VMware Solution 또는 Azure VMware Solution 기반 워크로드의 아웃바운드 인터넷 연결을 위해 구현됨</t>
-        </is>
-      </c>
+          <t>재해 솔루션 중 하나와 함께 자동화된 복구 계획을 사용하고 가능한 한 수동 작업을 피합니다</t>
+        </is>
+      </c>
+      <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4405,17 +3842,13 @@
         </is>
       </c>
       <c r="G74" s="21" t="n"/>
-      <c r="H74" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H74" s="15" t="n"/>
       <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>74be60a3-cfac-f057-eda6-3ee087e805d5</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4426,24 +3859,20 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>VM웨어</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>로깅 및 진단</t>
-        </is>
-      </c>
-      <c r="D75" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution에서 진단 및 메트릭 로깅 사용Enable Diagnostic and metric logging on Azure VMware Solution</t>
-        </is>
-      </c>
+          <t>지정학적 지역 쌍을 보조 재해 복구 환경으로 사용Use the geopolitical region pair as the secondary disaster recovery environment</t>
+        </is>
+      </c>
+      <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4455,17 +3884,13 @@
         </is>
       </c>
       <c r="G75" s="21" t="n"/>
-      <c r="H75" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H75" s="15" t="n"/>
       <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>a434b3b5-f258-0845-cd76-d7df6ef5890e</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4476,27 +3901,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>VM웨어</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 게스트 VM 워크로드에 배포된 Log Analytics 에이전트</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>AVS 워크로드 모니터링(AVS의 각 VM)</t>
-        </is>
-      </c>
+          <t>지역 간에 2개의 서로 다른 주소 공간을 사용합니다(예: 다른 지역의 경우 10.0.0.0/16 및 192.168.0.0/16).</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4505,17 +3926,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-monitor/agents/agent-windows?tabs=setup-wizard</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fb00b69a-83ec-ce72-446e-6c23a0cab09a</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4526,24 +3943,20 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>허브 &amp; 스포크(Hub &amp; Spoke)</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Az Firewall 또는 제3자를 통한 북쪽/남쪽 라우팅North/South routing through Az Firewall or 3rd party </t>
-        </is>
-      </c>
-      <c r="D77" s="21" t="inlineStr">
-        <is>
-          <t>교통 흐름에 대한 결정</t>
-        </is>
-      </c>
+          <t>ExpressRoute Global Reach는 기본 및 보조 Azure VMware Solution 프라이빗 클라우드 간의 연결에 사용됩니까, 아니면 네트워크 가상 어플라이언스를 통해 라우팅이 수행되나요?</t>
+        </is>
+      </c>
+      <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4555,17 +3968,13 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-hub-and-spoke</t>
-        </is>
-      </c>
+      <c r="H77" s="15" t="n"/>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a1354b87-e18e-bf5c-c50b-8ddf0540e971</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4576,24 +3985,20 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>허브 &amp; 스포크(Hub &amp; Spoke)</t>
+          <t>비즈니스 연속성</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>동서부(Azure 내부)</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="inlineStr">
-        <is>
-          <t>AVS 워크로드 간의 E/W가 아닌 방화벽을 통해 Azure에서 Azure 트래픽으로 라우팅하기로 결정(AVS 내부)</t>
-        </is>
-      </c>
+          <t>MABS를 백업 솔루션으로 사용</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4605,17 +4010,13 @@
         </is>
       </c>
       <c r="G78" s="21" t="n"/>
-      <c r="H78" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-hub-and-spoke</t>
-        </is>
-      </c>
+      <c r="H78" s="15" t="n"/>
       <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>29a8a499-ec31-f336-3266-0895f035e379</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4626,24 +4027,20 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>허브 &amp; 스포크(Hub &amp; Spoke)</t>
+          <t>비즈니스 연속성</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>글로벌 도달 범위가 없는 ExR</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>Azure Route Server를 사용하는 제3자 NVA 필요 - 시나리오 2(링크 참조)Requires a 3rd party NVA with Azure Route server - Scenario 2 (see link)</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution 프라이빗 클라우드와 동일한 지역에 백업 솔루션 배포Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4655,17 +4052,13 @@
         </is>
       </c>
       <c r="G79" s="21" t="n"/>
-      <c r="H79" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H79" s="15" t="n"/>
       <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>ebd3cc3c-ac3d-4293-950d-cecd8445a523</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4676,24 +4069,20 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>허브 &amp; 스포크(Hub &amp; Spoke)</t>
+          <t>비즈니스 연속성</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경로 서버 </t>
-        </is>
-      </c>
-      <c r="D80" s="21" t="inlineStr">
-        <is>
-          <t>경로 서버를 사용하는 경우 경로 서버에서 ExR 게이트웨이, 온-프레미스(ARS 제한)로 200개 이상의 경로가 전파되지 않도록 합니다. MoN을 사용할 때 중요</t>
-        </is>
-      </c>
+          <t>SDDC 외부에 MABS를 네이티브 Azure IaaS로 배포하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4705,17 +4094,13 @@
         </is>
       </c>
       <c r="G80" s="21" t="n"/>
-      <c r="H80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/route-server/route-server-faq</t>
-        </is>
-      </c>
+      <c r="H80" s="15" t="n"/>
       <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>ffb5c5ca-bd89-ff1b-8b73-8a54d503d506</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4726,27 +4111,23 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>비즈니스 연속성</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>송신 지점</t>
-        </is>
-      </c>
-      <c r="D81" s="21" t="inlineStr">
-        <is>
-          <t>온-프레미스, Az 방화벽, 제3자, NSX-T 공용 IP를 통해</t>
-        </is>
-      </c>
+          <t>Azure 플랫폼에서 관리하는 VMware 구성 요소의 복원을 요청하는 프로세스가 있나요?</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4755,17 +4136,13 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-design-public-internet-access</t>
-        </is>
-      </c>
+      <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a4070dad-3def-818d-e9f7-be440d10e7de</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4776,27 +4153,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>배포 전략</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>인터넷 연결 응용 프로그램</t>
-        </is>
-      </c>
-      <c r="D82" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Az Firewall, 제3자 NVA, Application Gateway, Azure Frontdoor </t>
-        </is>
-      </c>
+          <t>수동 배포의 경우 모든 구성 및 배포를 문서화해야 합니다</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4805,17 +4178,13 @@
         </is>
       </c>
       <c r="G82" s="21" t="n"/>
-      <c r="H82" s="15" t="inlineStr">
-        <is>
-          <t>Research and choose optimal solution for each application</t>
-        </is>
-      </c>
+      <c r="H82" s="15" t="n"/>
       <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>e942c03d-beaa-3d9f-0526-9b26cd5e9937</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4826,27 +4195,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>라우팅</t>
+          <t>배포 전략</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경로 서버 경로 제한을 이해한 경우? </t>
-        </is>
-      </c>
-      <c r="D83" s="21" t="inlineStr">
-        <is>
-          <t>경로 서버에서 ExR 게이트웨이, 온-프레미스로 200개 이상의 경로가 전파되지 않도록 합니다(ARS 제한). MoN을 사용할 때 중요</t>
-        </is>
-      </c>
+          <t>수동 배포의 경우 Azure VMware Solution 프라이빗 클라우드에서 우발적인 작업을 방지하기 위해 리소스 잠금을 구현하는 것이 좋습니다</t>
+        </is>
+      </c>
+      <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4855,17 +4220,13 @@
         </is>
       </c>
       <c r="G83" s="21" t="n"/>
-      <c r="H83" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/route-server/route-server-faq#route-server-limits</t>
-        </is>
-      </c>
+      <c r="H83" s="15" t="n"/>
       <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e778a2ec-b4d7-1d27-574c-14476b167d37</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4876,27 +4237,23 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>자동화된 배포</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">공용 IP 주소에 대한 DDoS 표준 보호가 있습니까?  </t>
-        </is>
-      </c>
-      <c r="D84" s="21" t="inlineStr">
-        <is>
-          <t>(VPN Gateway, AppGW, FrontDoor, 부하 분산 장치, VM 등) (제거: Azure의 ExR/VPN Gateway 서브넷에서 사용)</t>
-        </is>
-      </c>
+          <t>자동화된 배포의 경우 최소한의 프라이빗 클라우드를 배포하고 필요에 따라 확장합니다</t>
+        </is>
+      </c>
+      <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4905,17 +4262,13 @@
         </is>
       </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/ddos-protection/manage-ddos-protection</t>
-        </is>
-      </c>
+      <c r="H84" s="15" t="n"/>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>66c97b30-81b9-139a-cc76-dd1d94aef42a</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4926,27 +4279,23 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>자동화된 배포</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>전용 PAW(Privileged Access Workstation) 사용</t>
-        </is>
-      </c>
-      <c r="D85" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution, vCenter, NSX Manager 및 HCX Manager를 관리하려면</t>
-        </is>
-      </c>
+          <t>자동화된 배포의 경우 배포를 시작하기 전에 할당량을 요청하거나 예약합니다</t>
+        </is>
+      </c>
+      <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4955,17 +4304,13 @@
         </is>
       </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="inlineStr">
-        <is>
-          <t>Best practice: Bastion or 3rd party tool</t>
-        </is>
-      </c>
+      <c r="H85" s="15" t="n"/>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>d43da920-4ecc-a4e9-dd45-a2986ce81d32</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4976,27 +4321,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>교통 점검</t>
+          <t>자동화된 배포</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>이스트 웨스트(AVS 내부)</t>
-        </is>
-      </c>
-      <c r="D86" s="21" t="inlineStr">
-        <is>
-          <t>VMware 간 트래픽 검사에 NSX-T 사용</t>
-        </is>
-      </c>
+          <t>자동화된 배포의 경우 적절한 거버넌스를 위해 자동화 또는 Azure Policy를 통해 관련 리소스 잠금이 생성되었는지 확인합니다</t>
+        </is>
+      </c>
+      <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5005,17 +4346,13 @@
         </is>
       </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-NSX-T-Data-Center/3.2/administration/GUID-F6685367-7AA1-4771-927E-ED77727CFDA3.html</t>
-        </is>
-      </c>
+      <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>a2dac74f-5380-6e39-25e6-f13b99ece51f</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -5026,27 +4363,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>vWAN</t>
+          <t>자동 연결</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Secure Hub(Azure Firewall 또는 제3자) 사용Use Secure Hub (Azure Firewall or 3rd party)</t>
-        </is>
-      </c>
-      <c r="D87" s="21" t="inlineStr">
-        <is>
-          <t>E/W 및 인터넷 트래픽에 Secure Hub를 사용할지 여부 결정 - Global Reach 필요</t>
-        </is>
-      </c>
+          <t>ExR 권한 부여 키에 대해 사람이 이해할 수 있는 이름을 구현하여 키 목적/용도를 쉽게 식별할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5055,17 +4388,13 @@
         </is>
       </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
+      <c r="H87" s="15" t="n"/>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>3f621543-dfac-c471-54a6-7b2849b6909a</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -5076,27 +4405,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>vWAN</t>
+          <t>자동 연결</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>동서부(Azure 내부)</t>
-        </is>
-      </c>
-      <c r="D88" s="21" t="inlineStr">
-        <is>
-          <t>AVS 워크로드 간의 E/W가 아닌 방화벽을 통해 Azure에서 Azure 트래픽으로 라우팅하기로 결정(AVS 내부)</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution 및 ExpressRoute를 배포하는 데 별도의 서비스 원칙을 사용하는 경우 Key Vault를 사용하여 비밀 및 권한 부여 키를 저장합니다</t>
+        </is>
+      </c>
+      <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5105,17 +4430,13 @@
         </is>
       </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/secure-cloud-network</t>
-        </is>
-      </c>
+      <c r="H88" s="15" t="n"/>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>d7af5670-1b39-d95d-6da2-8d660dfbe16b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5126,27 +4447,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>기타 서비스/운영</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>자동화된 스케일</t>
+          <t>자동 연결</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>규모 확장 운영 계획</t>
-        </is>
-      </c>
-      <c r="D89" s="21" t="inlineStr">
-        <is>
-          <t>자동화된 스케일 아웃을 사용하려는 경우 Azure VMware Solution을 실행하는 구독에 대해 충분한 Azure VMware Solution 할당량을 신청해야 합니다</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution은 제한된 수의 병렬 작업만 지원하므로 Azure VMware Solution 많은 리소스를 배포해야 하는 경우 IaC에서 작업을 직렬화하기 위한 리소스 종속성을 정의합니다.</t>
+        </is>
+      </c>
+      <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5155,17 +4472,13 @@
         </is>
       </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-nsx-network-components-azure-portal</t>
-        </is>
-      </c>
+      <c r="H89" s="15" t="n"/>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>7d049005-eb35-4a93-50a5-3b31a9f61161</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5176,27 +4489,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>기타 서비스/운영</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>자동화된 스케일</t>
+          <t>자동 연결</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>운영 계획의 규모 확대</t>
-        </is>
-      </c>
-      <c r="D90" s="21" t="inlineStr">
-        <is>
-          <t>자동화된 축소를 사용하려는 경우 이러한 작업을 수행하기 전에 스토리지 정책 요구 사항을 고려해야 합니다</t>
-        </is>
-      </c>
+          <t>단일 Tier-1 게이트웨이를 사용하여 NSX-T 세그먼트의 자동화된 구성을 수행하는 경우 NSX-Manager API 대신 Azure Portal API를 사용합니다</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5205,17 +4514,13 @@
         </is>
       </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-platform-automation-and-devops#automated-scale</t>
-        </is>
-      </c>
+      <c r="H90" s="15" t="n"/>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>7242c1de-da37-27f3-1ddd-565ccccb8ece</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5226,7 +4531,7 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>기타 서비스/운영</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
@@ -5236,14 +4541,10 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>직렬화된 작업 계획 크기 조정</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="inlineStr">
-        <is>
-          <t>한 번에 하나의 확장 작업만 수행할 수 있으므로(여러 클러스터가 사용되는 경우에도) 확장 작업은 항상 단일 SDDC 내에서 직렬화해야 합니다</t>
-        </is>
-      </c>
+          <t>자동화된 스케일 아웃을 사용하려는 경우 Azure VMware Solution을 실행하는 구독에 대해 충분한 Azure VMware Solution 할당량을 신청해야 합니다</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5255,17 +4556,13 @@
         </is>
       </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-platform-automation-and-devops#automated-scale</t>
-        </is>
-      </c>
+      <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3233e49e-62ce-97f3-8737-8230e771b694</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5276,7 +4573,7 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>기타 서비스/운영</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
@@ -5286,14 +4583,10 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>RD 운영 계획 확장</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>아키텍처에 사용되는 3rd 파티 솔루션에 대한 크기 조정 작업 고려 및 유효성 검사(지원 여부)Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
-        </is>
-      </c>
+          <t>자동화된 축소를 사용하려는 경우 이러한 작업을 수행하기 전에 스토리지 정책 요구 사항을 고려해야 합니다</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5305,17 +4598,13 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="inlineStr">
-        <is>
-          <t>Best practice (testing)</t>
-        </is>
-      </c>
+      <c r="H92" s="15" t="n"/>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>68161d66-5707-319b-e77d-9217da892593</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5326,7 +4615,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>기타 서비스/운영</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -5336,14 +4625,10 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>최대 운영 계획 확장</t>
-        </is>
-      </c>
-      <c r="D93" s="21" t="inlineStr">
-        <is>
-          <t>자동화에서 환경에 대한 스케일 인/아웃 최대 한도 정의 및 적용Define and enforce scale in/out maximum limits for your environment in the automations</t>
-        </is>
-      </c>
+          <t>한 번에 하나의 확장 작업만 수행할 수 있으므로(여러 클러스터가 사용되는 경우에도) 확장 작업은 항상 단일 SDDC 내에서 직렬화해야 합니다</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5355,17 +4640,13 @@
         </is>
       </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="inlineStr">
-        <is>
-          <t>Operational planning - understand workload requirements</t>
-        </is>
-      </c>
+      <c r="H93" s="15" t="n"/>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c32cb953-e860-f204-957a-c79d61202669</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5376,7 +4657,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>기타 서비스/운영</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
@@ -5386,14 +4667,10 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">크기 조정 작업 모니터링 </t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>모니터링 규칙을 구현하여 자동화된 크기 조정 작업을 모니터링하고 성공 및 실패를 모니터링하여 적절한(자동화된) 응답을 활성화합니다.</t>
-        </is>
-      </c>
+          <t>아키텍처에 사용되는 3rd 파티 솔루션에 대한 크기 조정 작업 고려 및 유효성 검사(지원 여부)Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5405,17 +4682,13 @@
         </is>
       </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-management-and-monitoring</t>
-        </is>
-      </c>
+      <c r="H94" s="15" t="n"/>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>7bd65a5e-7b5d-652d-dbea-fc6f73a42857</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5426,24 +4699,20 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>기타 서비스/운영</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>자동화된 스케일</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 링크</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="inlineStr">
-        <is>
-          <t>다른 Azure 네이티브 서비스를 사용할 때 Azure Private-Link를 사용하는 것이 좋습니다.</t>
-        </is>
-      </c>
+          <t>자동화에서 환경에 대한 스케일 인/아웃 최대 한도 정의 및 적용Define and enforce scale in/out maximum limits for your environment in the automations</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5455,17 +4724,13 @@
         </is>
       </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/private-link/private-link-overview</t>
-        </is>
-      </c>
+      <c r="H95" s="15" t="n"/>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>95e374af-8a2a-2672-7ab7-b4a1be43ada7</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5476,24 +4741,20 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>기타 서비스/운영</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>자동화된 스케일</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>VMware VLAN 프로비저닝</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="inlineStr">
-        <is>
-          <t>단일 Tier-1 게이트웨이를 사용하여 NSX-T 세그먼트의 자동화된 구성을 수행하는 경우 NSX-Manager API 대신 Azure Portal API를 사용합니다</t>
-        </is>
-      </c>
+          <t>모니터링 규칙을 구현하여 자동화된 크기 조정 작업을 모니터링하고 성공 및 실패를 모니터링하여 적절한(자동화된) 응답을 활성화합니다.</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5505,17 +4766,13 @@
         </is>
       </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H96" s="15" t="n"/>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>71eff90d-5ad7-ac60-6244-2a6f7d3c51f2</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5524,1837 +4781,615 @@
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B97" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C97" s="21" t="inlineStr">
-        <is>
-          <t>선택한 지역</t>
-        </is>
-      </c>
-      <c r="D97" s="21" t="inlineStr">
-        <is>
-          <t>AVS가 배포되는 지역</t>
-        </is>
-      </c>
-      <c r="E97" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A97" s="21" t="n"/>
+      <c r="B97" s="21" t="n"/>
+      <c r="C97" s="21" t="n"/>
+      <c r="D97" s="21" t="n"/>
+      <c r="E97" s="21" t="n"/>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/windows-server/identity/ad-ds/plan/understanding-active-directory-site-topology</t>
-        </is>
-      </c>
+      <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="inlineStr">
-        <is>
-          <t>04e3a2f9-83b7-968a-1044-2811811a924b</t>
-        </is>
-      </c>
+      <c r="L97" s="25" t="n"/>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B98" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C98" s="21" t="inlineStr">
-        <is>
-          <t>선택한 지역을 준수하는 데이터 보존</t>
-        </is>
-      </c>
-      <c r="D98" s="21" t="inlineStr">
-        <is>
-          <t>규제 또는 규정 준수 정책이 적용되고 있습니까?</t>
-        </is>
-      </c>
-      <c r="E98" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A98" s="21" t="n"/>
+      <c r="B98" s="21" t="n"/>
+      <c r="C98" s="21" t="n"/>
+      <c r="D98" s="21" t="n"/>
+      <c r="E98" s="21" t="n"/>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="inlineStr">
-        <is>
-          <t>Internal policy or regulatory compliance</t>
-        </is>
-      </c>
+      <c r="H98" s="15" t="n"/>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="inlineStr">
-        <is>
-          <t>e52d1615-9cc6-565c-deb6-743ed7e90f4b</t>
-        </is>
-      </c>
+      <c r="L98" s="25" t="n"/>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B99" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C99" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">제출된 AVS 호스트 수에 대한 요청 </t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="inlineStr">
-        <is>
-          <t>지원 블레이드를 통한 요청</t>
-        </is>
-      </c>
-      <c r="E99" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A99" s="21" t="n"/>
+      <c r="B99" s="21" t="n"/>
+      <c r="C99" s="21" t="n"/>
+      <c r="D99" s="21" t="n"/>
+      <c r="E99" s="21" t="n"/>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/migrate/concepts-azure-vmware-solution-assessment-calculation</t>
-        </is>
-      </c>
+      <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="inlineStr">
-        <is>
-          <t>92bd5ad6-441f-a983-7aa9-05dd669d760b</t>
-        </is>
-      </c>
+      <c r="L99" s="25" t="n"/>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B100" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C100" s="21" t="inlineStr">
-        <is>
-          <t>승인된 AVS 노드 지역 및 수</t>
-        </is>
-      </c>
-      <c r="D100" s="21" t="inlineStr">
-        <is>
-          <t>배포를 위한 PG 승인</t>
-        </is>
-      </c>
-      <c r="E100" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A100" s="21" t="n"/>
+      <c r="B100" s="21" t="n"/>
+      <c r="C100" s="21" t="n"/>
+      <c r="D100" s="21" t="n"/>
+      <c r="E100" s="21" t="n"/>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="inlineStr">
-        <is>
-          <t>Support request through portal or get help from Account Team</t>
-        </is>
-      </c>
+      <c r="H100" s="15" t="n"/>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="inlineStr">
-        <is>
-          <t>28370f63-1cb8-2e35-907f-c5516b6954fa</t>
-        </is>
-      </c>
+      <c r="L100" s="25" t="n"/>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B101" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C101" s="21" t="inlineStr">
-        <is>
-          <t>등록된 AVS에 대한 리소스 공급자</t>
-        </is>
-      </c>
-      <c r="D101" s="21" t="inlineStr">
-        <is>
-          <t>포털/구독/리소스 공급자/Microsoft.AVS</t>
-        </is>
-      </c>
-      <c r="E101" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A101" s="21" t="n"/>
+      <c r="B101" s="21" t="n"/>
+      <c r="C101" s="21" t="n"/>
+      <c r="D101" s="21" t="n"/>
+      <c r="E101" s="21" t="n"/>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="inlineStr">
-        <is>
-          <t>Done through the subscription/resource providers/ AVS  register in the portal</t>
-        </is>
-      </c>
+      <c r="H101" s="15" t="n"/>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="inlineStr">
-        <is>
-          <t>96c76997-30a6-bb92-024d-f4f93f5f57fa</t>
-        </is>
-      </c>
+      <c r="L101" s="25" t="n"/>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B102" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C102" s="21" t="inlineStr">
-        <is>
-          <t>랜딩 존 아키텍처</t>
-        </is>
-      </c>
-      <c r="D102" s="21" t="inlineStr">
-        <is>
-          <t>연결성, 구독 및 관리 모델Connectivity, subscription &amp; governanace model</t>
-        </is>
-      </c>
-      <c r="E102" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A102" s="21" t="n"/>
+      <c r="B102" s="21" t="n"/>
+      <c r="C102" s="21" t="n"/>
+      <c r="D102" s="21" t="n"/>
+      <c r="E102" s="21" t="n"/>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/enterprise-scale-landing-zone</t>
-        </is>
-      </c>
+      <c r="H102" s="15" t="n"/>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="inlineStr">
-        <is>
-          <t>5898e3ff-5e6b-bee1-6f85-22fee261ce63</t>
-        </is>
-      </c>
+      <c r="L102" s="25" t="n"/>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B103" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C103" s="21" t="inlineStr">
-        <is>
-          <t>선택된 리소스 그룹 이름</t>
-        </is>
-      </c>
-      <c r="D103" s="21" t="inlineStr">
-        <is>
-          <t>AVS가 존재할 RG의 이름</t>
-        </is>
-      </c>
-      <c r="E103" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A103" s="21" t="n"/>
+      <c r="B103" s="21" t="n"/>
+      <c r="C103" s="21" t="n"/>
+      <c r="D103" s="21" t="n"/>
+      <c r="E103" s="21" t="n"/>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/manage-resource-groups-portal</t>
-        </is>
-      </c>
+      <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="inlineStr">
-        <is>
-          <t>d0181fb8-9cb8-bf4b-f5e5-b5f9bf7ae4ea</t>
-        </is>
-      </c>
+      <c r="L103" s="25" t="n"/>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B104" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C104" s="21" t="inlineStr">
-        <is>
-          <t>배포 접두사가 선택됨</t>
-        </is>
-      </c>
-      <c r="D104" s="21" t="inlineStr">
-        <is>
-          <t>배포의 일부로 생성된 각 리소스도 이름에서 이 접두사를 사용합니다</t>
-        </is>
-      </c>
-      <c r="E104" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A104" s="21" t="n"/>
+      <c r="B104" s="21" t="n"/>
+      <c r="C104" s="21" t="n"/>
+      <c r="D104" s="21" t="n"/>
+      <c r="E104" s="21" t="n"/>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="inlineStr">
-        <is>
-          <t>Best practice - naming standards</t>
-        </is>
-      </c>
+      <c r="H104" s="15" t="n"/>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="inlineStr">
-        <is>
-          <t>0f0d20c2-5a19-726c-de20-0984e070d9d6</t>
-        </is>
-      </c>
+      <c r="L104" s="25" t="n"/>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B105" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C105" s="21" t="inlineStr">
-        <is>
-          <t>AVS 관리 계층을 위한 네트워크 공간</t>
-        </is>
-      </c>
-      <c r="D105" s="21" t="inlineStr">
-        <is>
-          <t>겹치지 않는 고유한 IPv4 주소 공간 /22</t>
-        </is>
-      </c>
-      <c r="E105" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A105" s="21" t="n"/>
+      <c r="B105" s="21" t="n"/>
+      <c r="C105" s="21" t="n"/>
+      <c r="D105" s="21" t="n"/>
+      <c r="E105" s="21" t="n"/>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-network-checklist#routing-and-subnet-considerations</t>
-        </is>
-      </c>
+      <c r="H105" s="15" t="n"/>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="inlineStr">
-        <is>
-          <t>7fbf2ab7-a36c-5957-c27a-67038557af2a</t>
-        </is>
-      </c>
+      <c r="L105" s="25" t="n"/>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B106" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C106" s="21" t="inlineStr">
-        <is>
-          <t>AVS NSX-T 세그먼트를 위한 네트워크 공간</t>
-        </is>
-      </c>
-      <c r="D106" s="21" t="inlineStr">
-        <is>
-          <t>AVS에서 실행되는 워크로드에서 사용하는 vNet(확장되지 않음)vNets used by workloads running in AVS (non-stretched)</t>
-        </is>
-      </c>
-      <c r="E106" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A106" s="21" t="n"/>
+      <c r="B106" s="21" t="n"/>
+      <c r="C106" s="21" t="n"/>
+      <c r="D106" s="21" t="n"/>
+      <c r="E106" s="21" t="n"/>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-NSX-T-Data-Center/3.2/installation/GUID-4B3860B8-1883-48CA-B2F3-7C2205D91D6D.html</t>
-        </is>
-      </c>
+      <c r="H106" s="15" t="n"/>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="inlineStr">
-        <is>
-          <t>0c87f999-e517-21ef-f355-f210ad4134d2</t>
-        </is>
-      </c>
+      <c r="L106" s="25" t="n"/>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B107" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C107" s="21" t="inlineStr">
-        <is>
-          <t>AVS SKU(지역에 따라 다름)</t>
-        </is>
-      </c>
-      <c r="D107" s="21" t="inlineStr">
-        <is>
-          <t>AV36, AV36P, AV52, AV36T 선택(AV36T = 평가판)</t>
-        </is>
-      </c>
-      <c r="E107" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A107" s="21" t="n"/>
+      <c r="B107" s="21" t="n"/>
+      <c r="C107" s="21" t="n"/>
+      <c r="D107" s="21" t="n"/>
+      <c r="E107" s="21" t="n"/>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/en-us/pricing/details/azure-vmware/</t>
-        </is>
-      </c>
+      <c r="H107" s="15" t="n"/>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="inlineStr">
-        <is>
-          <t>946c8966-f902-6f53-4f37-00847e8895c2</t>
-        </is>
-      </c>
+      <c r="L107" s="25" t="n"/>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B108" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C108" s="21" t="inlineStr">
-        <is>
-          <t>배포할 호스트 수</t>
-        </is>
-      </c>
-      <c r="D108" s="21" t="inlineStr">
-        <is>
-          <t>Azure 마이그레이션 평가 도구를 사용하여 필요한 최소 노드 수를 결정합니다(BCDR도 고려).</t>
-        </is>
-      </c>
-      <c r="E108" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A108" s="21" t="n"/>
+      <c r="B108" s="21" t="n"/>
+      <c r="C108" s="21" t="n"/>
+      <c r="D108" s="21" t="n"/>
+      <c r="E108" s="21" t="n"/>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/migrate/how-to-assess</t>
-        </is>
-      </c>
+      <c r="H108" s="15" t="n"/>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="inlineStr">
-        <is>
-          <t>31833808-26ba-9c31-416f-d54a89a17f5d</t>
-        </is>
-      </c>
+      <c r="L108" s="25" t="n"/>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B109" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C109" s="21" t="inlineStr">
-        <is>
-          <t>리서버 인스턴스</t>
-        </is>
-      </c>
-      <c r="D109" s="21" t="inlineStr">
-        <is>
-          <t>예약 인스턴스를 사용해야 하는 방법 및 사용 여부 이해(비용 관리)</t>
-        </is>
-      </c>
-      <c r="E109" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A109" s="21" t="n"/>
+      <c r="B109" s="21" t="n"/>
+      <c r="C109" s="21" t="n"/>
+      <c r="D109" s="21" t="n"/>
+      <c r="E109" s="21" t="n"/>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/en-ca/pricing/details/azure-vmware/#:~:text=Azure%20VMware%20Solution%20%20%20%20Instance%20size,TB%20%28all%20NVMe%29%20%20%20N%2FA%20%2Fhour%20</t>
-        </is>
-      </c>
+      <c r="H109" s="15" t="n"/>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="inlineStr">
-        <is>
-          <t>f2b73c4f-3d46-32c9-5df1-5b8dfcd3947f</t>
-        </is>
-      </c>
+      <c r="L109" s="25" t="n"/>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B110" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C110" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">용량 </t>
-        </is>
-      </c>
-      <c r="D110" s="21" t="inlineStr">
-        <is>
-          <t>충분한 할당량을 요청했는지 확인하고 성장 및 재해 복구 요구 사항을 고려했는지 확인합니다</t>
-        </is>
-      </c>
-      <c r="E110" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A110" s="21" t="n"/>
+      <c r="B110" s="21" t="n"/>
+      <c r="C110" s="21" t="n"/>
+      <c r="D110" s="21" t="n"/>
+      <c r="E110" s="21" t="n"/>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H110" s="15" t="n"/>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="inlineStr">
-        <is>
-          <t>94ac48ab-ade5-3fa7-f800-263feeb97070</t>
-        </is>
-      </c>
+      <c r="L110" s="25" t="n"/>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B111" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C111" s="21" t="inlineStr">
-        <is>
-          <t>네트워킹 및 연결: scenrario 1에서 5까지 설명하는 문서를 참조하십시오.</t>
-        </is>
-      </c>
-      <c r="D111" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">네트워킹 시나리오 중 어떤 것이 만드는지 식별합니다. </t>
-        </is>
-      </c>
-      <c r="E111" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A111" s="21" t="n"/>
+      <c r="B111" s="21" t="n"/>
+      <c r="C111" s="21" t="n"/>
+      <c r="D111" s="21" t="n"/>
+      <c r="E111" s="21" t="n"/>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H111" s="15" t="n"/>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="inlineStr">
-        <is>
-          <t>1f9d4bd5-14b8-928c-b4cb-eb211f9b8de5</t>
-        </is>
-      </c>
+      <c r="L111" s="25" t="n"/>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="inlineStr">
-        <is>
-          <t>계획</t>
-        </is>
-      </c>
-      <c r="B112" s="21" t="inlineStr">
-        <is>
-          <t>배포 전</t>
-        </is>
-      </c>
-      <c r="C112" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">제3자 응용 프로그램 호환성 </t>
-        </is>
-      </c>
-      <c r="D112" s="21" t="inlineStr">
-        <is>
-          <t>ESXi에 대한 액세스 제약 조건을 이해하고 타사 솔루션에 영향을 줄 수 있는 액세스 제한이 있는지 확인합니다.</t>
-        </is>
-      </c>
-      <c r="E112" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A112" s="21" t="n"/>
+      <c r="B112" s="21" t="n"/>
+      <c r="C112" s="21" t="n"/>
+      <c r="D112" s="21" t="n"/>
+      <c r="E112" s="21" t="n"/>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="inlineStr">
-        <is>
-          <t>Please Check Partner Ecosystem</t>
-        </is>
-      </c>
+      <c r="H112" s="15" t="n"/>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="inlineStr">
-        <is>
-          <t>070db19b-8a2a-fd6a-c39b-4488d8780da9</t>
-        </is>
-      </c>
+      <c r="L112" s="25" t="n"/>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
       <c r="P112" s="25" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B113" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="C113" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Advanced Threat Detection 사용Enable Advanced Threat Detection </t>
-        </is>
-      </c>
-      <c r="D113" s="21" t="inlineStr">
-        <is>
-          <t>클라우드용 MS Defender, Azure VMware Solution에서 실행되는 워크로드용</t>
-        </is>
-      </c>
-      <c r="E113" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A113" s="21" t="n"/>
+      <c r="B113" s="21" t="n"/>
+      <c r="C113" s="21" t="n"/>
+      <c r="D113" s="21" t="n"/>
+      <c r="E113" s="21" t="n"/>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/azure-security-integration#prerequisites</t>
-        </is>
-      </c>
+      <c r="H113" s="15" t="n"/>
       <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="25" t="inlineStr">
-        <is>
-          <t>f42b0b09-c591-238a-1580-2de3c485ebd2</t>
-        </is>
-      </c>
+      <c r="L113" s="25" t="n"/>
       <c r="M113" s="25" t="n"/>
       <c r="N113" s="25" t="n"/>
       <c r="O113" s="25" t="n"/>
       <c r="P113" s="25" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B114" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="C114" s="21" t="inlineStr">
-        <is>
-          <t>정책 및 규정 준수</t>
-        </is>
-      </c>
-      <c r="D114" s="21" t="inlineStr">
-        <is>
-          <t>적용 가능한 정책을 사용할 수 있습니까(MDfC에 추가된 규정 준수 기준)</t>
-        </is>
-      </c>
-      <c r="E114" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A114" s="21" t="n"/>
+      <c r="B114" s="21" t="n"/>
+      <c r="C114" s="21" t="n"/>
+      <c r="D114" s="21" t="n"/>
+      <c r="E114" s="21" t="n"/>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/azure-security-integration</t>
-        </is>
-      </c>
+      <c r="H114" s="15" t="n"/>
       <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="25" t="inlineStr">
-        <is>
-          <t>bcdd2348-3d0e-c6bb-1092-aa4cd1a66d6b</t>
-        </is>
-      </c>
+      <c r="L114" s="25" t="n"/>
       <c r="M114" s="25" t="n"/>
       <c r="N114" s="25" t="n"/>
       <c r="O114" s="25" t="n"/>
       <c r="P114" s="25" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B115" s="21" t="inlineStr">
-        <is>
-          <t>방화벽</t>
-        </is>
-      </c>
-      <c r="C115" s="21" t="inlineStr">
-        <is>
-          <t>Azure / 제3자 방화벽</t>
-        </is>
-      </c>
-      <c r="D115" s="21" t="inlineStr">
-        <is>
-          <t>Azure에서 Azure로(E/W), Azure에서 온-프레미스로), AVS에서 인터넷으로, AVS에서 Azure로</t>
-        </is>
-      </c>
-      <c r="E115" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A115" s="21" t="n"/>
+      <c r="B115" s="21" t="n"/>
+      <c r="C115" s="21" t="n"/>
+      <c r="D115" s="21" t="n"/>
+      <c r="E115" s="21" t="n"/>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-migration-and/firewall-integration-in-azure-vmware-solution/ba-p/2254961#:~:text=Azure%20VMware%20Solution%20customers%20have%20multiple%20security%20options,the%20box%20to%20provide%20East-West%20and%20North-South%20firewalling.</t>
-        </is>
-      </c>
+      <c r="H115" s="15" t="n"/>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="25" t="inlineStr">
-        <is>
-          <t>607c1ca9-da92-ae19-5a4c-eb1e876acbe7</t>
-        </is>
-      </c>
+      <c r="L115" s="25" t="n"/>
       <c r="M115" s="25" t="n"/>
       <c r="N115" s="25" t="n"/>
       <c r="O115" s="25" t="n"/>
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B116" s="21" t="inlineStr">
-        <is>
-          <t>방화벽</t>
-        </is>
-      </c>
-      <c r="C116" s="21" t="inlineStr">
-        <is>
-          <t>방화벽은 AVS 내부의 East/West 트래픽을 허용합니다.</t>
-        </is>
-      </c>
-      <c r="D116" s="21" t="inlineStr">
-        <is>
-          <t>HCX 어플라이언스가 연결/동기화할 수 있도록 하려면</t>
-        </is>
-      </c>
-      <c r="E116" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A116" s="21" t="n"/>
+      <c r="B116" s="21" t="n"/>
+      <c r="C116" s="21" t="n"/>
+      <c r="D116" s="21" t="n"/>
+      <c r="E116" s="21" t="n"/>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-Cloud-on-AWS/services/com.vmware.vmc-aws-networking-security/GUID-2CFE1654-9CC9-4EDB-A625-21317299E559.html</t>
-        </is>
-      </c>
+      <c r="H116" s="15" t="n"/>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="inlineStr">
-        <is>
-          <t>1d87925c-c02b-7fde-a425-7e95ad846a27</t>
-        </is>
-      </c>
+      <c r="L116" s="25" t="n"/>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B117" s="21" t="inlineStr">
-        <is>
-          <t>네트워킹</t>
-        </is>
-      </c>
-      <c r="C117" s="21" t="inlineStr">
-        <is>
-          <t>HCX 및/또는 SRM</t>
-        </is>
-      </c>
-      <c r="D117" s="21" t="inlineStr">
-        <is>
-          <t>사용할 도구 결정(SRM에 추가 라이센스 필요 - 자동화 및 기타 기능 활성화)</t>
-        </is>
-      </c>
-      <c r="E117" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A117" s="21" t="n"/>
+      <c r="B117" s="21" t="n"/>
+      <c r="C117" s="21" t="n"/>
+      <c r="D117" s="21" t="n"/>
+      <c r="E117" s="21" t="n"/>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.2/hcx-user-guide/GUID-B842696B-89EF-4183-9C73-B77157F56055.html</t>
-        </is>
-      </c>
+      <c r="H117" s="15" t="n"/>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="inlineStr">
-        <is>
-          <t>468b3495-2f6e-b65a-38ef-3ba631bcaa46</t>
-        </is>
-      </c>
+      <c r="L117" s="25" t="n"/>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B118" s="21" t="inlineStr">
-        <is>
-          <t>네트워킹</t>
-        </is>
-      </c>
-      <c r="C118" s="21" t="inlineStr">
-        <is>
-          <t>HCX 인터커넥트 구성 및 관리</t>
-        </is>
-      </c>
-      <c r="D118" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Service Mesh 요구 사항에 대한 요구 사항 및 HCX 방법 </t>
-        </is>
-      </c>
-      <c r="E118" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="21" t="n"/>
+      <c r="C118" s="21" t="n"/>
+      <c r="D118" s="21" t="n"/>
+      <c r="E118" s="21" t="n"/>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.6/hcx-user-guide/GUID-76BCD059-A31A-4041-9105-ACFB56213E7C.html</t>
-        </is>
-      </c>
+      <c r="H118" s="15" t="n"/>
       <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="inlineStr">
-        <is>
-          <t>be2ced52-da08-d366-cf7c-044c19e29509</t>
-        </is>
-      </c>
+      <c r="L118" s="25" t="n"/>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B119" s="21" t="inlineStr">
-        <is>
-          <t>네트워킹</t>
-        </is>
-      </c>
-      <c r="C119" s="21" t="inlineStr">
-        <is>
-          <t>네트워크 확장에 대한 제한 사항</t>
-        </is>
-      </c>
-      <c r="D119" s="21" t="inlineStr">
-        <is>
-          <t>스트레치 네트워크를 사용하려는 경우 온-프레미스 환경 요구 사항을 확인합니다.</t>
-        </is>
-      </c>
-      <c r="E119" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A119" s="21" t="n"/>
+      <c r="B119" s="21" t="n"/>
+      <c r="C119" s="21" t="n"/>
+      <c r="D119" s="21" t="n"/>
+      <c r="E119" s="21" t="n"/>
       <c r="G119" s="21" t="n"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.2/hcx-user-guide/GUID-DBDB4D1B-60B6-4D16-936B-4AC632606909.html</t>
-        </is>
-      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="inlineStr">
-        <is>
-          <t>7dcac579-fc5c-5c9c-f1f7-9b1149ff2c37</t>
-        </is>
-      </c>
+      <c r="L119" s="25" t="n"/>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B120" s="21" t="inlineStr">
-        <is>
-          <t>네트워킹</t>
-        </is>
-      </c>
-      <c r="C120" s="21" t="inlineStr">
-        <is>
-          <t>이동성에 최적화된 네트워킹</t>
-        </is>
-      </c>
-      <c r="D120" s="21" t="inlineStr">
-        <is>
-          <t>워크로드에 MoN이 필요한가요?</t>
-        </is>
-      </c>
-      <c r="E120" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A120" s="21" t="n"/>
+      <c r="B120" s="21" t="n"/>
+      <c r="C120" s="21" t="n"/>
+      <c r="D120" s="21" t="n"/>
+      <c r="E120" s="21" t="n"/>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/vmware-hcx-mon-guidance</t>
-        </is>
-      </c>
+      <c r="H120" s="15" t="n"/>
       <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="inlineStr">
-        <is>
-          <t>cf45c0b9-6c4b-3bfb-86c5-62fe54061c73</t>
-        </is>
-      </c>
+      <c r="L120" s="25" t="n"/>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B121" s="21" t="inlineStr">
-        <is>
-          <t>온-프레미스 필수 구성 요소</t>
-        </is>
-      </c>
-      <c r="C121" s="21" t="inlineStr">
-        <is>
-          <t>지원 매트릭스 (OS 버전 등).</t>
-        </is>
-      </c>
-      <c r="D121" s="21" t="inlineStr">
-        <is>
-          <t>VMware 환경의 운영 체제 수준</t>
-        </is>
-      </c>
-      <c r="E121" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A121" s="21" t="n"/>
+      <c r="B121" s="21" t="n"/>
+      <c r="C121" s="21" t="n"/>
+      <c r="D121" s="21" t="n"/>
+      <c r="E121" s="21" t="n"/>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/site-recovery/vmware-physical-azure-support-matrix</t>
-        </is>
-      </c>
+      <c r="H121" s="15" t="n"/>
       <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="inlineStr">
-        <is>
-          <t>b7cf11f3-b12e-5189-991a-06df5250d2ca</t>
-        </is>
-      </c>
+      <c r="L121" s="25" t="n"/>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B122" s="21" t="inlineStr">
-        <is>
-          <t>온-프레미스 필수 구성 요소</t>
-        </is>
-      </c>
-      <c r="C122" s="21" t="inlineStr">
-        <is>
-          <t>동적 스위치로 변환된 표준 스위치</t>
-        </is>
-      </c>
-      <c r="D122" s="21" t="inlineStr">
-        <is>
-          <t>모든 스위치가 동적이어야 합니다.</t>
-        </is>
-      </c>
-      <c r="E122" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A122" s="21" t="n"/>
+      <c r="B122" s="21" t="n"/>
+      <c r="C122" s="21" t="n"/>
+      <c r="D122" s="21" t="n"/>
+      <c r="E122" s="21" t="n"/>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-vSphere/7.0/vsan-network-design-guide/GUID-91E1CD6F-33A6-4AC6-BC22-3E4807296F86.html#:~:text=Migrate%20Management%20Network%201%20Add%20hosts%20to%20the,each%20host.%20...%204%20Finish%20the%20configuration.%20</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="n"/>
       <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="inlineStr">
-        <is>
-          <t>45fe9252-aa1b-4e30-45c6-bc02f3b76acf</t>
-        </is>
-      </c>
+      <c r="L122" s="25" t="n"/>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B123" s="21" t="inlineStr">
-        <is>
-          <t>온-프레미스 필수 구성 요소</t>
-        </is>
-      </c>
-      <c r="C123" s="21" t="inlineStr">
-        <is>
-          <t>HCX 어플라이언스의 용량</t>
-        </is>
-      </c>
-      <c r="D123" s="21" t="inlineStr">
-        <is>
-          <t>링크에서 크기 조정 및 용량에 대한 섹션을 참조하세요.</t>
-        </is>
-      </c>
-      <c r="E123" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A123" s="21" t="n"/>
+      <c r="B123" s="21" t="n"/>
+      <c r="C123" s="21" t="n"/>
+      <c r="D123" s="21" t="n"/>
+      <c r="E123" s="21" t="n"/>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/plan-private-cloud-deployment</t>
-        </is>
-      </c>
+      <c r="H123" s="15" t="n"/>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="inlineStr">
-        <is>
-          <t>e9f6d736-ee44-e2ac-e7f9-e361f8c857f3</t>
-        </is>
-      </c>
+      <c r="L123" s="25" t="n"/>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B124" s="21" t="inlineStr">
-        <is>
-          <t>온-프레미스 필수 구성 요소</t>
-        </is>
-      </c>
-      <c r="C124" s="21" t="inlineStr">
-        <is>
-          <t>하드웨어 호환성</t>
-        </is>
-      </c>
-      <c r="D124" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">하드웨어 제한 사항을 확인하여 AVS/OS와의 호환성을 확인하십시오. </t>
-        </is>
-      </c>
-      <c r="E124" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A124" s="21" t="n"/>
+      <c r="B124" s="21" t="n"/>
+      <c r="C124" s="21" t="n"/>
+      <c r="D124" s="21" t="n"/>
+      <c r="E124" s="21" t="n"/>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="inlineStr">
-        <is>
-          <t>https://kb.vmware.com/s/article/2007240#:~:text=ESXi%2FESX%20hosts%20and%20compatible%20virtual%20machine%20hardware%20versions,%20Not%20Supported%20%204%20more%20rows</t>
-        </is>
-      </c>
+      <c r="H124" s="15" t="n"/>
       <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="inlineStr">
-        <is>
-          <t>1be2cdd6-15a7-9a33-aea7-113859035ce9</t>
-        </is>
-      </c>
+      <c r="L124" s="25" t="n"/>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B125" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="C125" s="21" t="inlineStr">
-        <is>
-          <t>Virtual SAN RDM 디스크가 변환됨 - 지원되지 않습니다.</t>
-        </is>
-      </c>
-      <c r="D125" s="21" t="inlineStr">
-        <is>
-          <t>변환해야 합니다.</t>
-        </is>
-      </c>
-      <c r="E125" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A125" s="21" t="n"/>
+      <c r="B125" s="21" t="n"/>
+      <c r="C125" s="21" t="n"/>
+      <c r="D125" s="21" t="n"/>
+      <c r="E125" s="21" t="n"/>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-vSphere/7.0/com.vmware.vsphere.storage.doc/GUID-01D3CF47-A84A-4988-8103-A0487D6441AA.html</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="n"/>
       <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="inlineStr">
-        <is>
-          <t>16ab821a-27c6-b6d3-6042-10dc4d6dfcb7</t>
-        </is>
-      </c>
+      <c r="L125" s="25" t="n"/>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B126" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="C126" s="21" t="inlineStr">
-        <is>
-          <t>SCSI 공유 버스가 있는 VM은 지원되지 않습니다.</t>
-        </is>
-      </c>
-      <c r="D126" s="21" t="inlineStr">
-        <is>
-          <t>변환해야 합니다.</t>
-        </is>
-      </c>
-      <c r="E126" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A126" s="21" t="n"/>
+      <c r="B126" s="21" t="n"/>
+      <c r="C126" s="21" t="n"/>
+      <c r="D126" s="21" t="n"/>
+      <c r="E126" s="21" t="n"/>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="inlineStr">
-        <is>
-          <t>3rd-Party tools</t>
-        </is>
-      </c>
+      <c r="H126" s="15" t="n"/>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="inlineStr">
-        <is>
-          <t>eb2f9313-afb2-ab35-aa24-6d97a3cb0611</t>
-        </is>
-      </c>
+      <c r="L126" s="25" t="n"/>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B127" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="C127" s="21" t="inlineStr">
-        <is>
-          <t>Direct IO가 있는 VM에서 DirectPath 디바이스를 제거해야 함</t>
-        </is>
-      </c>
-      <c r="D127" s="21" t="inlineStr">
-        <is>
-          <t>마이그레이션하기 전에 직접 IO 제거</t>
-        </is>
-      </c>
-      <c r="E127" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A127" s="21" t="n"/>
+      <c r="B127" s="21" t="n"/>
+      <c r="C127" s="21" t="n"/>
+      <c r="D127" s="21" t="n"/>
+      <c r="E127" s="21" t="n"/>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="inlineStr">
-        <is>
-          <t>3f2a5cff-c8a6-634a-1f1b-53ef9d321381</t>
-        </is>
-      </c>
+      <c r="L127" s="25" t="n"/>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B128" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="C128" s="21" t="inlineStr">
-        <is>
-          <t>공유 VMDK 파일은 지원되지 않습니다.</t>
-        </is>
-      </c>
-      <c r="D128" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">클러스터를 마이그레이션할 수 없습니다. </t>
-        </is>
-      </c>
-      <c r="E128" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A128" s="21" t="n"/>
+      <c r="B128" s="21" t="n"/>
+      <c r="C128" s="21" t="n"/>
+      <c r="D128" s="21" t="n"/>
+      <c r="E128" s="21" t="n"/>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="inlineStr">
-        <is>
-          <t>efc8a311-74f8-0252-c6a0-4bac7610e266</t>
-        </is>
-      </c>
+      <c r="L128" s="25" t="n"/>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B129" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="C129" s="21" t="inlineStr">
-        <is>
-          <t>'물리적 호환성 모드'를 사용하는 RDM은 지원되지 않습니다.</t>
-        </is>
-      </c>
-      <c r="D129" s="21" t="inlineStr">
-        <is>
-          <t>다른 형식으로 변환</t>
-        </is>
-      </c>
-      <c r="E129" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A129" s="21" t="n"/>
+      <c r="B129" s="21" t="n"/>
+      <c r="C129" s="21" t="n"/>
+      <c r="D129" s="21" t="n"/>
+      <c r="E129" s="21" t="n"/>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="inlineStr">
-        <is>
-          <t>ab6c89cd-a26f-b894-fe59-61863975458e</t>
-        </is>
-      </c>
+      <c r="L129" s="25" t="n"/>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B130" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="C130" s="21" t="inlineStr">
-        <is>
-          <t>기본 스토리지 정책</t>
-        </is>
-      </c>
-      <c r="D130" s="21" t="inlineStr">
-        <is>
-          <t>이 정책은 씩 프로비저닝을 적용하므로 VM에 대한 vSAN 스토리지 정책이 기본 스토리지 정책이 아닌지 확인합니다. 'RAID-1 FTT-1'은 씬 프로비저닝의 기본값입니다.</t>
-        </is>
-      </c>
-      <c r="E130" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A130" s="21" t="n"/>
+      <c r="B130" s="21" t="n"/>
+      <c r="C130" s="21" t="n"/>
+      <c r="D130" s="21" t="n"/>
+      <c r="E130" s="21" t="n"/>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="inlineStr">
-        <is>
-          <t>7628d446-6b10-9678-9cec-f407d990de43</t>
-        </is>
-      </c>
+      <c r="L130" s="25" t="n"/>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>적절한 VM 템플릿 스토리지 정책이 사용되는지 확인합니다</t>
-        </is>
-      </c>
-      <c r="D131" s="21" t="inlineStr">
-        <is>
-          <t>기본 스토리지 정책은 RAID-1(미러링) FTT-1로 설정되고 오브젝트 공간 예약은 씬 프로비저닝으로 설정됩니다.</t>
-        </is>
-      </c>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
+      <c r="D131" s="21" t="n"/>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-storage-policy</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>37fef358-7ab9-43a9-542c-22673955200e</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B132" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="C132" s="21" t="inlineStr">
-        <is>
-          <t>정책을 용납하지 않음</t>
-        </is>
-      </c>
-      <c r="D132" s="21" t="inlineStr">
-        <is>
-          <t>vSAN 스토리지 요구 사항을 충족하기 위해 허용되는 장애 정책이 적용되었는지 확인합니다</t>
-        </is>
-      </c>
-      <c r="E132" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A132" s="21" t="n"/>
+      <c r="B132" s="21" t="n"/>
+      <c r="C132" s="21" t="n"/>
+      <c r="D132" s="21" t="n"/>
+      <c r="E132" s="21" t="n"/>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="inlineStr">
-        <is>
-          <t>ebebd109-9f9d-d85e-1b2f-d302012843b7</t>
-        </is>
-      </c>
+      <c r="L132" s="25" t="n"/>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="inlineStr">
-        <is>
-          <t>VM웨어</t>
-        </is>
-      </c>
-      <c r="B133" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="C133" s="21" t="inlineStr">
-        <is>
-          <t>외부 스토리지에 ANF 사용</t>
-        </is>
-      </c>
-      <c r="D133" s="21" t="inlineStr">
-        <is>
-          <t>ANF를 사용하여 Azure VMware Solution에 대한 스토리지를 확장할 수 있습니다.</t>
-        </is>
-      </c>
-      <c r="E133" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="A133" s="21" t="n"/>
+      <c r="B133" s="21" t="n"/>
+      <c r="C133" s="21" t="n"/>
+      <c r="D133" s="21" t="n"/>
+      <c r="E133" s="21" t="n"/>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/netapp-files-with-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H133" s="15" t="n"/>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="inlineStr">
-        <is>
-          <t>1be821bd-4f37-216a-3e3d-2a5ac6996863</t>
-        </is>
-      </c>
+      <c r="L133" s="25" t="n"/>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
@@ -9877,20 +7912,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -9902,123 +8035,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F134" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10033,7 +8051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -10109,7 +8127,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>계획</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10146,7 +8164,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -10173,7 +8191,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -10195,7 +8213,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -10217,7 +8235,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>BCDR (비씨드르)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -10234,28 +8252,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>모니터링</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BCDR (비씨드르)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>기타 서비스/운영</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>경영</t>
+          <t>플랫폼 자동화</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/avs_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/avs_checklist.ko.xlsx
@@ -1132,7 +1132,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>vCenter가 ADDS에 연결되어 '명명된 사용자 계정'을 기반으로 인증을 사용하도록 설정하는지 확인합니다.</t>
+          <t>vCenter가 ADDS에 연결되어 있는지 확인하여 '명명된 사용자 계정'을 기반으로 인증을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>vCenter에서 ADS로의 연결이 보안 프로토콜(LDAPS)을 사용하고 있는지 확인합니다.</t>
+          <t>vCenter에서 ADDS로의 연결이 보안 프로토콜(LDAPS)을 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>vCenter IdP의 CloudAdmin 계정은 긴급 계정으로만 사용됩니다(비상 계정).</t>
+          <t>vCenter IdP의 CloudAdmin 계정은 긴급 계정으로만 사용됩니다(Break-glass).</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>NSX-Manager가 외부 ID 제공자와 통합되어 있는지 확인합니다</t>
+          <t>NSX-Manager가 외부 ID 제공자(LDAPS)와 통합되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>VMware vSphere 내에서 사용할 RBAC 모델이 생성되었습니까?</t>
+          <t>VMware vSphere에서 사용하기 위해 RBAC 모델이 생성되었습니까?</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>RBAC 권한은 특정 사용자가 아닌 ADDS 그룹에 부여되어야 합니다.</t>
+          <t>RBAC 권한은 특정 사용자가 아닌 ADDS 그룹에 부여해야 합니다</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Azure의 Azure VMware Solution 리소스에 대한 RBAC 권한은 제한된 소유자 집합으로만 '잠겨' 있습니다.</t>
+          <t>Azure의 Azure VMware Solution 리소스에 대한 RBAC 권한은 제한된 소유자 집합으로만 '잠김'됩니다</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1437,17 +1437,17 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>건축학</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>현재 고객 사용 사례에 대해 올바른 Azure VMware Solution 연결 모델을 선택했는지 여부</t>
+          <t>모든 사용자 지정 역할의 범위가 CloudAdmin 허용 권한 부여로 지정되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1462,17 +1462,13 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
-        </is>
-      </c>
+      <c r="H17" s="15" t="n"/>
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1488,12 +1484,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>건축학</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>'연결 모니터'를 사용하여 온-프레미스에서 Azure로의 ExpressRoute 또는 VPN 연결이 모니터링되는지 확인합니다.</t>
+          <t>현재 고객 사용 사례에 대해 올바른 Azure VMware Solution 연결 모델을 선택했습니까?</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1508,13 +1504,17 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
+        </is>
+      </c>
       <c r="I18" s="15" t="n"/>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>dbf590ce-65de-48e0-9f9c-cbd468266abc</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1535,13 +1535,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 리소스에서 Azure VMware Solution 가상 머신으로 연결 모니터를 만들어 Azure VMware Solution 백 엔드 ExpressRoute 연결을 모니터링해야 합니다.</t>
+          <t>'연결 모니터'를 사용하여 온-프레미스에서 Azure로의 ExpressRoute 또는 VPN 연결이 모니터링되는지 확인합니다.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>e6a84de5-df43-4d19-a248-1718d5d1e5f6</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>엔드2엔드 연결을 모니터링하기 위해 온-프레미스 리소스에서 Azure VMware Solution 가상 머신으로 연결 모니터가 생성되었는지 확인합니다.</t>
+          <t>Azure VMware Solution 백 엔드 ExpressRoute 연결을 모니터링하기 위해 Azure 네이티브 리소스에서 Azure VMware Solution 가상 머신으로 연결 모니터가 만들어졌는지 확인합니다.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1598,7 +1598,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>25659d35-58fd-4772-99c9-31112d027fe4</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1614,18 +1614,18 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>라우팅</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>경로 서버를 사용하는 경우 경로 서버에서 ExR 게이트웨이, 온-프레미스(ARS 제한)로 200개 이상의 경로가 전파되지 않도록 합니다. MoN을 사용할 때 중요</t>
+          <t>엔드-2-엔드 연결을 모니터링하기 위해 온-프레미스 리소스에서 Azure VMware Solution 가상 머신으로 연결 모니터가 만들어졌는지 확인합니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1640,7 +1640,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1651,17 +1651,17 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>보안(ID)</t>
+          <t>라우팅</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Azure Portal에서 Azure VMware Solution 리소스를 관리하는 역할에 대해 Privileged Identity Management가 구현되어 있습니까(대기 권한이 허용되지 않음).</t>
+          <t>경로 서버를 사용하는 경우 경로 서버에서 ExR 게이트웨이로, 온-프레미스로 1,000개 이상의 경로가 전파되지 않도록 합니다(ARS 제한).</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1693,7 +1693,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution PIM 역할에 대해 Privileged Identity Management 감사 보고가 구현되어 있습니까?</t>
+          <t>Azure Portal에서 Azure VMware Solution 리소스를 관리하는 역할에 대해 Privileged Identity Management가 구현되어 있나요(고정 권한이 허용되지 않음).</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1724,7 +1724,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1735,7 +1735,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>CloudAdmin 계정 사용을 응급 액세스로만 제한Limit of CloudAdmin account with emergency access only</t>
+          <t>Azure VMware Solution PIM 역할에 대해 Privileged Identity Management 감사 보고를 구현해야 합니다.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1766,7 +1766,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1777,7 +1777,7 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>vCenter에서 사용자 지정 RBAC 역할을 만들어 vCenter 내에서 최소 권한 모델을 구현합니다</t>
+          <t>Privileged Identity Management를 사용하는 경우 Azure VMware Solution 자동 호스트 교체 알림에 대한 유효한 SMTP 레코드를 사용하여 유효한 Entra ID 사용 계정을 만들었는지 확인합니다. (상시 권한 필요)</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1808,7 +1808,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1819,7 +1819,7 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
@@ -1829,13 +1829,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>cloudadmin(vCenter) 및 admin(NSX) 자격 증명을 정기적으로 교체하도록 정의된 프로세스입니다</t>
+          <t>CloudAdmin 계정 사용을 긴급 액세스로만 제한</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1850,7 +1850,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1861,7 +1861,7 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
@@ -1871,13 +1871,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에서 실행되는 워크로드(VM)에 사용할 중앙 집중식 ID 공급자 사용</t>
+          <t>vCenter에서 사용자 지정 RBAC 역할을 만들어 vCenter 내에서 최소 권한 모델 구현</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1891,7 +1891,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1902,17 +1902,17 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>보안(네트워크)</t>
+          <t>보안(ID)</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>East-West 트래픽 필터링이 NSX-T 내에 구현되어 있습니까?</t>
+          <t>cloudadmin(vCenter) 및 admin(NSX) 자격 증명을 정기적으로 순환하도록 정의된 프로세스입니다.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -1932,7 +1932,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1943,17 +1943,17 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>보안(네트워크)</t>
+          <t>보안(ID)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution의 워크로드는 인터넷에 직접 노출되지 않습니다. 트래픽은 Azure Application Gateway, Azure Firewall 또는 제3자 솔루션에 의해 필터링되고 검사됩니다</t>
+          <t>Azure VMware Solution에서 실행되는 워크로드(VM)에 사용할 중앙 집중식 ID 공급자 사용</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -1973,7 +1973,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1984,7 +1984,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
@@ -1994,13 +1994,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>감사 및 로깅은 Azure VMware Solution 및 Azure VMware Solution 기반 워크로드에 대한 인바운드 인터넷 요청에 대해 구현됩니다</t>
+          <t>NSX-T 내에서 East-West 트래픽 필터링이 구현되었는지 여부</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2025,7 +2025,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
@@ -2035,13 +2035,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>세션 모니터링은 의심스러운/악의적인 활동을 식별하기 위해 Azure VMware Solution 또는 Azure VMware Solution 기반 워크로드의 아웃바운드 인터넷 연결에 대해 구현됩니다</t>
+          <t>Azure VMware Solution의 워크로드는 인터넷에 직접 노출되지 않습니다. 트래픽은 Azure Application Gateway, Azure Firewall 또는 제3자 솔루션에 의해 필터링되고 검사됩니다</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2055,7 +2055,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2066,7 +2066,7 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
@@ -2076,13 +2076,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Azure의 ExR/VPN Gateway 서브넷에서 DDoS 표준 보호가 사용하도록 설정되어 있습니까?</t>
+          <t>감사 및 로깅은 Azure VMware Solution 및 Azure VMware Solution 기반 워크로드에 대한 인바운드 인터넷 요청에 대해 구현됩니다</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2097,7 +2097,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2108,7 +2108,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>전용 PAW(권한 있는 액세스 워크스테이션)를 사용하여 Azure VMware Solution, vCenter, NSX Manager 및 HCX Manager를 관리합니다</t>
+          <t>세션 모니터링은 의심스러운/악의적인 활동을 식별하기 위해 Azure VMware Solution 또는 Azure VMware Solution 기반 워크로드의 아웃바운드 인터넷 연결에 대해 구현됩니다</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2139,7 +2139,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2150,17 +2150,17 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>보안(게스트/VM)</t>
+          <t>보안(네트워크)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에서 실행되는 워크로드에 대해 Advanced Threat Detection(클라우드용 Microsoft Defender, ASC) 사용</t>
+          <t>Azure의 ExR/VPN Gateway 서브넷에서 DDoS 표준 보호를 사용할 수 있나요?</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2192,17 +2192,17 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>보안(게스트/VM)</t>
+          <t>보안(네트워크)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>서버용 Azure ARC를 사용하여 Azure 네이티브 기술을 사용하여 Azure VMware Solution 실행되는 워크로드를 적절하게 제어합니다(Azure VMware Solution용 Azure ARC는 아직 사용할 수 없음).</t>
+          <t>전용 PAW(Privileged Access Workstation)를 사용하여 Azure VMware Solution, vCenter, NSX Manager 및 HCX Manager 관리</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2223,7 +2223,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2234,7 +2234,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2244,13 +2244,13 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 워크로드가 런타임 중에 충분한 데이터 암호화(예: 게스트 내 디스크 암호화 및 SQL TDE)를 사용하는지 확인합니다. (유휴 시 vSAN 암호화가 기본값임)</t>
+          <t>Azure VMware Solution에서 실행되는 워크로드에 대해 Advanced Threat Detection(클라우드용 Microsoft Defender 또는 ASC) 사용</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2265,7 +2265,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2276,7 +2276,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2286,13 +2286,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>게스트 내 암호화를 사용하는 경우 가능하면 Azure Key Vault에 암호화 키를 저장합니다</t>
+          <t>서버용 Azure ARC를 사용하여 Azure 네이티브 기술을 사용하여 Azure VMware Solution에서 실행되는 워크로드를 적절하게 제어합니다(Azure VMware Solution용 Azure ARC는 아직 사용할 수 없음).</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2307,7 +2307,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2318,7 +2318,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2328,13 +2328,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 실행되는 워크로드에 대해 확장 보안 업데이트 지원이 구성되어 있는지 확인합니다(Azure VMware Solution은 ESU에 적합).</t>
+          <t>Azure VMware Solution의 워크로드가 런타임 중에 충분한 데이터 암호화(예: 게스트 내 디스크 암호화 및 SQL TDE)를 사용하는지 확인합니다. (vSAN 미사용 암호화가 기본값임)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2349,7 +2349,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2360,23 +2360,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>거버넌스(플랫폼)</t>
+          <t>보안(게스트/VM)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>적절한 VM 템플릿 스토리지 정책이 사용되는지 확인합니다</t>
+          <t>게스트 내 암호화를 사용하는 경우 가능한 경우 Azure Key Vault에 암호화 키를 저장합니다</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2391,7 +2391,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2402,23 +2402,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>거버넌스(플랫폼)</t>
+          <t>보안(게스트/VM)</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>충분한 할당량을 요청했는지 확인하고 성장 및 재해 복구 요구 사항을 고려했는지 확인합니다</t>
+          <t>Azure VMware Solution에서 실행되는 워크로드에 대해 확장된 보안 업데이트 지원을 사용하는 것이 좋습니다(Azure VMware Solution은 ESU에 적합함).</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2444,7 +2444,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>vSAN 스토리지 요구 사항을 충족하기 위해 허용되는 장애 정책이 적용되었는지 확인합니다</t>
+          <t>적절한 vSAN 데이터 이중화 방법이 사용되는지 확인합니다(RAID 규격).</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2475,7 +2475,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2486,7 +2486,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2496,13 +2496,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>ESXi에 대한 액세스 제약 조건을 이해하고 타사 솔루션에 영향을 줄 수 있는 액세스 제한이 있는지 확인합니다.</t>
+          <t>vSAN 스토리지 요구 사항을 충족하기 위해 장애 허용 정책이 적용되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2517,7 +2517,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2528,7 +2528,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2538,13 +2538,13 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>ESXi 호스트 밀도 및 효율성에 대한 정책이 있는지 확인하고 새 노드 요청에 대한 리드 타임을 염두에 두어야 합니다</t>
+          <t>충분한 할당량을 요청했는지 확인하고 성장 및 재해 복구 요구 사항을 고려했는지 확인합니다</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2559,7 +2559,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2570,7 +2570,7 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에 대한 적절한 비용 관리 프로세스가 마련되어 있는지 확인 - Azure Cost Management를 사용할 수 있습니다.</t>
+          <t>ESXi에 대한 액세스 제약 조건을 이해하고 타사 솔루션에 영향을 줄 수 있는 액세스 제한이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2612,7 +2612,7 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
@@ -2622,13 +2622,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 사용 비용을 최적화하는 데 사용되는 Azure 예약 인스턴스인가요?</t>
+          <t>새 노드 요청에 대한 리드 타임을 염두에 두고 ESXi 호스트 밀도 및 효율성에 대한 정책이 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2642,7 +2642,7 @@
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2653,7 +2653,7 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>다른 Azure 네이티브 서비스를 사용할 때 Azure Private-Link를 사용하는 것이 좋습니다.</t>
+          <t>Azure VMware Solution에 대한 적절한 비용 관리 프로세스가 있는지 확인 - Azure Cost Management를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2684,7 +2684,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2695,23 +2695,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>거버넌스(게스트/VM)</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 게스트 VM 워크로드에 클라우드용 Microsoft Defender 사용</t>
+          <t>Azure VMware Solution 사용 비용을 최적화하는 데 사용되는 Azure 예약 인스턴스입니까?</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2726,7 +2726,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2737,17 +2737,17 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>거버넌스(게스트/VM)</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc 지원 서버를 사용하여 Azure VMware Solution 게스트 VM 워크로드 관리</t>
+          <t>다른 Azure 네이티브 서비스를 사용할 때 Azure Private-Link 사용 고려</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2767,7 +2767,7 @@
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2778,17 +2778,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>거버넌스(게스트/VM)</t>
+          <t>거버넌스(플랫폼)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에서 진단 및 메트릭 로깅 사용Enable Diagnostic and metric logging on Azure VMware Solution</t>
+          <t>필요한 모든 리소스가 동일한 Azure 가용성 영역 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2808,7 +2808,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2819,7 +2819,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 게스트 VM 워크로드에 Log Analytics 에이전트 배포Deploy the Log Analytics Agents to Azure VMware Solution guest VM workloads</t>
+          <t>Azure VMware Solution 게스트 VM 워크로드에 대해 클라우드용 Microsoft Defender 사용</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2850,7 +2850,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2861,7 +2861,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution VM 워크로드에 대한 문서화되고 구현된 백업 정책 및 솔루션이 있는지 확인합니다.</t>
+          <t>Azure Arc 지원 서버를 사용하여 Azure VMware Solution 게스트 VM 워크로드 관리</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2892,7 +2892,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2903,23 +2903,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>거버넌스(게스트/VM)</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>클라우드용 Microsoft Defender를 사용하여 Azure VMware Solution에서 실행되는 워크로드의 규정 준수 모니터링</t>
+          <t>Azure VMware Solution에서 진단 및 메트릭 로깅 사용Enable Diagnostic and metric logging on Azure VMware Solution</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2934,7 +2934,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2945,17 +2945,17 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>거버넌스(게스트/VM)</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>적용 가능한 규정 준수 기준이 클라우드용 Microsoft Defender에 추가됩니까?</t>
+          <t>Azure VMware Solution 게스트 VM 워크로드에 Log Analytics 에이전트 배포</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -2975,7 +2975,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -2986,23 +2986,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>컴플라이언스</t>
+          <t>거버넌스(게스트/VM)</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 배포에 사용할 Azure 지역을 선택할 때 데이터 상주가 평가되었습니다.</t>
+          <t>Azure VMware Solution VM 워크로드에 대한 백업 정책 및 솔루션을 문서화하고 구현했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3017,7 +3017,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3028,7 +3028,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3038,13 +3038,13 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>데이터 처리에 미치는 영향(서비스 공급자/서비스 소비자 모델)이 명확하고 문서화되어 있습니까?</t>
+          <t>클라우드용 Microsoft Defender를 사용하여 Azure VMware Solution에서 실행되는 워크로드의 규정 준수 모니터링</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3058,7 +3058,7 @@
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3069,23 +3069,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>핵심 Azure VMware Solution 모니터링 인사이트를 사용하도록 대시보드 만들기</t>
+          <t>적용 가능한 규정 준수 기준이 클라우드용 Microsoft Defender에 추가되었나요?</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3099,7 +3099,7 @@
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3110,17 +3110,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 성능(CPU &gt;80%, 평균 메모리 &gt;80%, vSAN &gt;70%)에 대한 자동 경고에 대한 중요 임계값에 대한 경고 경고 만들기</t>
+          <t>Azure VMware Solution 배포에 사용할 Azure 지역을 선택할 때 데이터 보존이 평가되었나요?</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3140,7 +3140,7 @@
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3151,17 +3151,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>VMware의 지원 임계값이므로 vSAN 사용량이 75% 미만인지 모니터링하기 위해 중요 경고가 생성되었는지 확인합니다.</t>
+          <t>데이터 처리의 영향(서비스 제공자/서비스 소비자 모델)이 명확하고 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3181,7 +3181,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3192,23 +3192,23 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>컴플라이언스</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Azure Service Health 경고 및 알림에 대해 경고가 구성되어 있는지 확인</t>
+          <t>규정 준수를 위해 필요한 경우에만 vSAN에 CMK(고객 관리 키)를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3222,7 +3222,7 @@
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3243,13 +3243,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>처리를 위해 Azure Storage 계정 또는 Azure EventHub로 보내도록 Azure VMware Solution 로깅 구성</t>
+          <t>핵심 Azure VMware Solution 모니터링 인사이트를 사용하도록 설정하는 대시보드 만들기</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3263,7 +3263,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3284,13 +3284,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>VMware vSphere에 대한 심층적인 통찰력이 필요한 경우: 솔루션에 vRealize Operations 및/또는 vRealize Network Insights가 사용됩니까?</t>
+          <t>Azure VMware Solution 성능에 대한 자동 경고에 대한 중요 임계값에 대한 경고 만들기(CPU &gt;80%, 평균 메모리&gt;80%, vSAN&gt;70%)</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3320,12 +3320,12 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>VM에 대한 vSAN 스토리지 정책은 씩 프로비저닝을 적용하므로 기본 스토리지 정책이 아닌지 확인합니다</t>
+          <t>VMware의 지원 임계값이므로 vSAN 사용량이 75% 미만인지 모니터링하기 위해 중요한 경고가 생성되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3345,7 +3345,7 @@
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3361,18 +3361,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>vSAN은 유한한 리소스이므로 vSphere 컨텐츠 라이브러리가 vSAN에 배치되지 않도록 합니다.</t>
+          <t>Azure Service Health 경고 및 알림에 대해 경고가 구성되었는지 확인</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3387,7 +3387,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>백업 솔루션에 대한 데이터 저장소가 vSAN 스토리지 외부에 저장되어 있는지 확인합니다. Azure 네이티브 또는 디스크 풀 지원 데이터 저장소에서either in Azure native or on a disk pool-backed datastore</t>
+          <t>처리를 위해 Azure Storage 계정 또는 Azure EventHub로 보내도록 Azure VMware Solution 로깅 구성</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3429,7 +3429,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3445,18 +3445,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에서 실행되는 워크로드가 서버용 Azure Arc를 사용하여 하이브리드 관리되는지 확인합니다(Azure VMware Solution용 Arc는 미리 보기로 제공됨).</t>
+          <t>VMware vSphere에 대한 심층적인 통찰력이 필요한 경우: 솔루션에서 vRealize Operations 및/또는 vRealize Network Insights가 사용됩니까?</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3471,7 +3471,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3492,13 +3492,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure Log Analytics 및 Azure Monitor를 사용하여 Azure VMware Solution에서 실행되는 워크로드를 모니터링하는지 확인</t>
+          <t>VM에 대한 vSAN 스토리지 정책은 씩 프로비저닝을 적용하므로 기본 스토리지 정책이 아닌지 확인합니다.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3512,7 +3512,7 @@
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>기존 업데이트 관리 도구 또는 Azure 업데이트 관리의 Azure VMware Solution에서 실행되는 워크로드 포함</t>
+          <t>vSAN은 유한한 리소스이므로 vSphere 컨텐츠 라이브러리가 vSAN에 배치되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3554,7 +3554,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 Azure 관리, 모니터링 및 보안 솔루션에서 Azure VMware Solution 워크로드 온보딩</t>
+          <t>백업 솔루션에 대한 데이터 저장소가 vSAN 스토리지 외부에 저장되어 있는지 확인합니다. Azure 네이티브 또는 디스크 풀 지원 데이터 저장소에서</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3596,7 +3596,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3617,13 +3617,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>ANF를 사용하여 Azure VMware Solution 스토리지를 확장하는 경우 지금은 VM 수준에서만 사용되는지 확인합니다(NFS 데이터 저장소가 아직 프라이빗 미리 보기 상태이므로 ANF).</t>
+          <t>Azure VMware Solution에서 실행되는 워크로드가 서버용 Azure Arc를 사용하여 하이브리드 관리되는지 확인합니다(Arc for Azure VMware Solution은 미리 보기 상태임).</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3638,7 +3638,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ab79b188-dab8-4193-8c9f-c9d1bb77036f</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 실행되는 워크로드가 클라우드용 Microsoft Defender에 온보딩되었는지 확인</t>
+          <t>Azure Log Analytics 및 Azure Monitor를 사용하여 Azure VMware Solution에서 실행되는 워크로드를 모니터링하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3680,7 +3680,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3691,17 +3691,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>백업</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>vSAN은 한정된 리소스이므로 백업이 vSAN에 저장되지 않도록 합니다.</t>
+          <t>기존 업데이트 관리 도구 또는 Azure 업데이트 관리에 Azure VMware Solution에서 실행되는 워크로드 포함</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3722,7 +3722,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3733,17 +3733,17 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>두 사이트가 모두 Azure VMware Solution인 경우 VMware Site Recovery Manager 사용</t>
+          <t>Azure Policy를 사용하여 Azure 관리, 모니터링 및 보안 솔루션에서 Azure VMware Solution 워크로드 온보딩</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3764,7 +3764,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3775,17 +3775,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>재해 복구 기술이 네이티브 Azure IaaS인 경우 Azure Site Recovery 사용Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
+          <t>Azure VMware Solution에서 실행되는 워크로드가 클라우드용 Microsoft Defender에 온보딩되었는지 확인</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3806,7 +3806,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -3817,23 +3817,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>백업</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>재해 솔루션 중 하나와 함께 자동화된 복구 계획을 사용하고 가능한 한 수동 작업을 피합니다</t>
+          <t>vSAN은 유한한 리소스이므로 백업이 vSAN에 저장되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3848,7 +3848,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -3859,7 +3859,7 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>지정학적 지역 쌍을 보조 재해 복구 환경으로 사용Use the geopolitical region pair as the secondary disaster recovery environment</t>
+          <t>모든 DR 솔루션을 고려하고 비즈니스에 가장 적합한 솔루션을 결정했습니까? [SRM/제트스트림/제르토/빔/...]</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -3890,7 +3890,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -3901,7 +3901,7 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
@@ -3911,13 +3911,13 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>지역 간에 2개의 서로 다른 주소 공간을 사용합니다(예: 다른 지역의 경우 10.0.0.0/16 및 192.168.0.0/16).</t>
+          <t>재해 복구 기술이 네이티브 Azure IaaS인 경우 Azure Site Recovery 사용Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3932,7 +3932,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -3943,7 +3943,7 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
@@ -3953,13 +3953,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Global Reach는 기본 및 보조 Azure VMware Solution 프라이빗 클라우드 간의 연결에 사용됩니까, 아니면 네트워크 가상 어플라이언스를 통해 라우팅이 수행되나요?</t>
+          <t>재해 솔루션 중 하나와 함께 자동화된 복구 계획을 사용하고 가능한 한 수동 작업을 피하십시오.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3974,7 +3974,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -3985,17 +3985,17 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>MABS를 백업 솔루션으로 사용</t>
+          <t>지정학적 지역 쌍을 보조 재해 복구 환경으로 사용Use the geopolitical region pair as the secondary disaster recovery environment</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4016,7 +4016,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4027,23 +4027,23 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 프라이빗 클라우드와 동일한 지역에 백업 솔루션 배포Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
+          <t>지역 간에 2개의 서로 다른 주소 공간을 사용합니다(예: 서로 다른 지역에 대해 10.0.0.0/16 및 192.168.0.0/16).</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4069,17 +4069,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>SDDC 외부에 MABS를 네이티브 Azure IaaS로 배포하는 것이 좋습니다.</t>
+          <t>ExpressRoute Global Reach는 기본 및 보조 Azure VMware Solution 프라이빗 클라우드 간의 연결에 사용되나요, 아니면 네트워크 가상 어플라이언스를 통해 라우팅이 수행되나요?</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4111,7 +4111,7 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
@@ -4121,13 +4121,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Azure 플랫폼에서 관리하는 VMware 구성 요소의 복원을 요청하는 프로세스가 있나요?</t>
+          <t>모든 백업 솔루션을 고려하고 비즈니스에 가장 적합한 솔루션을 결정했습니까? [ MABS/CommVault/Metallic.io/Veeam/입니다. ]</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4142,7 +4142,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4153,23 +4153,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>배포 전략</t>
+          <t>비즈니스 연속성</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>수동 배포의 경우 모든 구성 및 배포를 문서화해야 합니다</t>
+          <t>Azure VMware Solution 프라이빗 클라우드와 동일한 지역에 백업 솔루션 배포Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4184,7 +4184,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4195,23 +4195,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>배포 전략</t>
+          <t>비즈니스 연속성</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>수동 배포의 경우 Azure VMware Solution 프라이빗 클라우드에서 우발적인 작업을 방지하기 위해 리소스 잠금을 구현하는 것이 좋습니다</t>
+          <t>vSan의 외부, Azure 네이티브 구성 요소에 백업 솔루션 배포</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4226,7 +4226,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4237,17 +4237,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>자동화된 배포</t>
+          <t>비즈니스 연속성</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>자동화된 배포의 경우 최소한의 프라이빗 클라우드를 배포하고 필요에 따라 확장합니다</t>
+          <t>Azure 플랫폼에서 관리하는 VMware 구성 요소의 복원을 요청하는 프로세스가 마련되어 있나요?</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4268,7 +4268,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>자동화된 배포</t>
+          <t>배포 전략</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>자동화된 배포의 경우 배포를 시작하기 전에 할당량을 요청하거나 예약합니다</t>
+          <t>수동 배포의 경우 모든 구성 및 배포를 문서화해야 합니다</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4310,7 +4310,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>자동화된 배포</t>
+          <t>배포 전략</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>자동화된 배포의 경우 적절한 거버넌스를 위해 자동화 또는 Azure Policy를 통해 관련 리소스 잠금이 생성되었는지 확인합니다</t>
+          <t>수동 배포의 경우 Azure VMware Solution 프라이빗 클라우드에서 실수로 인한 작업을 방지하기 위해 리소스 잠금을 구현하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4352,7 +4352,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>자동 연결</t>
+          <t>자동화된 배포</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>ExR 권한 부여 키에 대해 사람이 이해할 수 있는 이름을 구현하여 키 목적/용도를 쉽게 식별할 수 있습니다.</t>
+          <t>자동화된 배포의 경우 최소한의 프라이빗 클라우드를 배포하고 필요에 따라 확장합니다</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>자동 연결</t>
+          <t>자동화된 배포</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 및 ExpressRoute를 배포하는 데 별도의 서비스 원칙을 사용하는 경우 Key Vault를 사용하여 비밀 및 권한 부여 키를 저장합니다</t>
+          <t>자동화된 배포의 경우 배포를 시작하기 전에 할당량을 요청하거나 예약합니다</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4436,7 +4436,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>자동 연결</t>
+          <t>자동화된 배포</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution은 제한된 수의 병렬 작업만 지원하므로 Azure VMware Solution 많은 리소스를 배포해야 하는 경우 IaC에서 작업을 직렬화하기 위한 리소스 종속성을 정의합니다.</t>
+          <t>자동화된 배포의 경우 적절한 거버넌스를 위해 자동화 또는 Azure Policy를 통해 관련 리소스 잠금을 만들어야 합니다</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4494,12 +4494,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>자동 연결</t>
+          <t>자동화된 연결</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>단일 Tier-1 게이트웨이를 사용하여 NSX-T 세그먼트의 자동화된 구성을 수행하는 경우 NSX-Manager API 대신 Azure Portal API를 사용합니다</t>
+          <t>ExR 인증 키에 대해 사람이 이해할 수 있는 이름을 구현하여 키의 목적/용도를 쉽게 식별할 수 있습니다.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4536,18 +4536,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>자동화된 스케일</t>
+          <t>자동화된 연결</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>자동화된 스케일 아웃을 사용하려는 경우 Azure VMware Solution을 실행하는 구독에 대해 충분한 Azure VMware Solution 할당량을 신청해야 합니다</t>
+          <t>Azure VMware Solution 및 ExpressRoute를 배포하는 데 별도의 서비스 원칙을 사용하는 경우 Key Vault를 사용하여 비밀 및 권한 부여 키를 저장합니다</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4562,7 +4562,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -4578,18 +4578,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>자동화된 스케일</t>
+          <t>자동화된 연결</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>자동화된 축소를 사용하려는 경우 이러한 작업을 수행하기 전에 스토리지 정책 요구 사항을 고려해야 합니다</t>
+          <t>Azure VMware Solution은 제한된 수의 병렬 작업만 지원하므로 많은 리소스를 Azure VMware Solution 배포해야 하는 경우 IaC에서 작업을 직렬화하기 위한 리소스 종속성을 정의합니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4604,7 +4604,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -4620,18 +4620,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>자동화된 스케일</t>
+          <t>자동화된 연결</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>한 번에 하나의 확장 작업만 수행할 수 있으므로(여러 클러스터가 사용되는 경우에도) 확장 작업은 항상 단일 SDDC 내에서 직렬화해야 합니다</t>
+          <t>단일 Tier-1 게이트웨이를 사용하여 NSX-T 세그먼트의 자동화된 구성을 수행하는 경우 NSX-Manager API 대신 Azure Portal API를 사용합니다</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4646,7 +4646,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -4662,12 +4662,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>자동화된 스케일</t>
+          <t>자동화된 확장</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>아키텍처에 사용되는 3rd 파티 솔루션에 대한 크기 조정 작업 고려 및 유효성 검사(지원 여부)Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
+          <t>자동화된 스케일 아웃을 사용하려는 경우 Azure VMware Solution을 실행하는 구독에 대해 충분한 Azure VMware Solution 할당량을 적용해야 합니다</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -4688,7 +4688,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -4704,12 +4704,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>자동화된 스케일</t>
+          <t>자동화된 확장</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>자동화에서 환경에 대한 스케일 인/아웃 최대 한도 정의 및 적용Define and enforce scale in/out maximum limits for your environment in the automations</t>
+          <t>자동 축소를 사용하려는 경우 이러한 작업을 수행하기 전에 스토리지 정책 요구 사항을 고려해야 합니다</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -4730,7 +4730,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>자동화된 스케일</t>
+          <t>자동화된 확장</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>모니터링 규칙을 구현하여 자동화된 크기 조정 작업을 모니터링하고 성공 및 실패를 모니터링하여 적절한(자동화된) 응답을 활성화합니다.</t>
+          <t>한 번에 하나의 크기 조정 작업만 수행할 수 있으므로 크기 조정 작업은 항상 단일 SDDC 내에서 직렬화되어야 합니다(여러 클러스터를 사용하는 경우에도)</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -4772,7 +4772,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -4781,271 +4781,719 @@
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>자동화된 확장</t>
+        </is>
+      </c>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>아키텍처에 사용되는 제3자 솔루션에 대한 확장 작업을 고려하고 검증합니다(지원 여부)Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
+        </is>
+      </c>
       <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화</t>
+        </is>
+      </c>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>자동화된 확장</t>
+        </is>
+      </c>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>자동화에서 환경에 대한 규모 확장/축소 최대 한도 정의 및 적용Define and enforce scale in/out maximum limits for your environment in the automations</t>
+        </is>
+      </c>
       <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="n"/>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>자동화된 확장</t>
+        </is>
+      </c>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>모니터링 규칙을 구현하여 자동화된 조정 작업을 모니터링하고 성공 및 실패를 모니터링하여 적절한(자동) 응답을 사용하도록 설정합니다.</t>
+        </is>
+      </c>
       <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>이주</t>
+        </is>
+      </c>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>건축학</t>
+        </is>
+      </c>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>MON을 사용하는 경우 동시에 구성된 VM의 제한(HCX에 대한 MON 제한[400 - 표준, 1000 - 대형 어플라이언스])을 알고 있어야 합니다.</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="n"/>
-      <c r="I100" s="15" t="n"/>
+      <c r="H100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>이주</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>건축학</t>
+        </is>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>MON을 사용하는 경우 100개 이상의 네트워크 확장에서 MON을 사용하도록 설정할 수 없습니다</t>
+        </is>
+      </c>
       <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="n"/>
-      <c r="I101" s="15" t="n"/>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>이주</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>네트워킹</t>
+        </is>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>마이그레이션에 VPN 연결을 사용하는 경우 그에 따라 MTU 크기를 조정합니다.</t>
+        </is>
+      </c>
       <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="n"/>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>이주</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>네트워킹</t>
+        </is>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Azure(500Mbps 이하)에 연결하는 낮은 연결 지역의 경우 HCX WAN 최적화 어플라이언스 배포를 고려합니다.</t>
+        </is>
+      </c>
       <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>이주</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>프로세스</t>
+        </is>
+      </c>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>마이그레이션이 클라우드 어플라이언스가 아닌 온-프레미스 어플라이언스에서 시작되는지 확인합니다(역방향 마이그레이션을 수행하지 않음).</t>
+        </is>
+      </c>
       <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="n"/>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>데이터 스토리지</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>건축학</t>
+        </is>
+      </c>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files를 사용하여 Azure VMware Solution용 스토리지를 확장하는 경우 VM에 직접 연결하는 대신 VMware 데이터 저장소로 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>데이터 스토리지</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>건축학</t>
+        </is>
+      </c>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>전용 ExpressRoute 게이트웨이가 외부 데이터 스토리지 솔루션에 사용되고 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>데이터 스토리지</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>건축학</t>
+        </is>
+      </c>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>외부 데이터 스토리지 솔루션에 사용되는 ExpressRoute 게이트웨이에서 FastPath를 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="n"/>
-      <c r="B108" s="21" t="n"/>
-      <c r="C108" s="21" t="n"/>
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>확장된 클러스터</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>건축학</t>
+        </is>
+      </c>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>확장된 클러스터를 사용하는 경우 선택한 재해 복구 솔루션이 공급업체에서 지원되는지 확인합니다</t>
+        </is>
+      </c>
       <c r="D108" s="21" t="n"/>
-      <c r="E108" s="21" t="n"/>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="n"/>
+      <c r="H108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="n"/>
+      <c r="L108" s="25" t="inlineStr">
+        <is>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+        </is>
+      </c>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="n"/>
-      <c r="B109" s="21" t="n"/>
-      <c r="C109" s="21" t="n"/>
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>확장된 클러스터</t>
+        </is>
+      </c>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>건축학</t>
+        </is>
+      </c>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>확장된 클러스터를 사용하는 경우 제공된 SLA가 요구 사항을 충족하는지 확인합니다</t>
+        </is>
+      </c>
       <c r="D109" s="21" t="n"/>
-      <c r="E109" s="21" t="n"/>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="n"/>
+      <c r="H109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="n"/>
+      <c r="L109" s="25" t="inlineStr">
+        <is>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+        </is>
+      </c>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="n"/>
-      <c r="B110" s="21" t="n"/>
-      <c r="C110" s="21" t="n"/>
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>확장된 클러스터</t>
+        </is>
+      </c>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>건축학</t>
+        </is>
+      </c>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>확장된 클러스터를 사용하는 경우 두 ExpressRoute 회로가 모두 연결 허브에 연결되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="D110" s="21" t="n"/>
-      <c r="E110" s="21" t="n"/>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="n"/>
+      <c r="H110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="n"/>
+      <c r="L110" s="25" t="inlineStr">
+        <is>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+        </is>
+      </c>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="n"/>
-      <c r="B111" s="21" t="n"/>
-      <c r="C111" s="21" t="n"/>
+      <c r="A111" s="21" t="inlineStr">
+        <is>
+          <t>확장된 클러스터</t>
+        </is>
+      </c>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>건축학</t>
+        </is>
+      </c>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>확장된 클러스터를 사용하는 경우 두 ExpressRoute 회로 모두에서 GlobalReach를 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="D111" s="21" t="n"/>
-      <c r="E111" s="21" t="n"/>
+      <c r="E111" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="n"/>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="n"/>
+      <c r="L111" s="25" t="inlineStr">
+        <is>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+        </is>
+      </c>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="21" t="n"/>
-      <c r="C112" s="21" t="n"/>
+      <c r="A112" s="21" t="inlineStr">
+        <is>
+          <t>확장된 클러스터</t>
+        </is>
+      </c>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>건축학</t>
+        </is>
+      </c>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>사이트 재해 허용 범위 설정을 적절하게 고려하고 필요한 경우 비즈니스에 맞게 변경하십시오.</t>
+        </is>
+      </c>
       <c r="D112" s="21" t="n"/>
-      <c r="E112" s="21" t="n"/>
+      <c r="E112" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="n"/>
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="n"/>
+      <c r="L112" s="25" t="inlineStr">
+        <is>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+        </is>
+      </c>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
@@ -8036,7 +8484,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F113" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -8191,7 +8639,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -8208,7 +8656,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>필요하지 않음</t>
+          <t>필요 없음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8218,7 +8666,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항을 이해했지만 현재 요구 사항에는 필요하지 않습니다.</t>
+          <t>권장 사항은 이해되었지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -8230,12 +8678,12 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>해당 사항 없음</t>
+          <t>해당 없음</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BCDR (비씨드르)</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
